--- a/Работа/Сравнение brotli, gzip Измерения/Измерения(Restored).xlsx
+++ b/Работа/Сравнение brotli, gzip Измерения/Измерения(Restored).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\diploma\Работа\Результаты замеров\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programing\diploma\Работа\Сравнение brotli, gzip Измерения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035CADFE-2C1F-49B7-AD33-DE146504D8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E9F1D23-0186-4CCD-9C27-34B6455349AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,8 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -564,14 +562,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O188" sqref="O188"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120:U120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>23</v>
       </c>
@@ -585,7 +583,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>22</v>
@@ -607,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
@@ -624,19 +622,19 @@
         <v>13</v>
       </c>
       <c r="H4" s="9">
-        <f>C4/999</f>
-        <v>0.36536536536536535</v>
+        <f>999/C4</f>
+        <v>2.7369863013698632</v>
       </c>
       <c r="I4" s="9">
-        <f>D4/479</f>
-        <v>0.39665970772442588</v>
+        <f>479/D4</f>
+        <v>2.5210526315789474</v>
       </c>
       <c r="J4" s="10">
-        <f>E4/456</f>
-        <v>0.35526315789473684</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+        <f>456/E4</f>
+        <v>2.8148148148148149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
@@ -653,19 +651,19 @@
         <v>14</v>
       </c>
       <c r="H5" s="9">
-        <f t="shared" ref="H5:H12" si="0">C5/999</f>
-        <v>0.35235235235235235</v>
+        <f t="shared" ref="H5:H23" si="0">999/C5</f>
+        <v>2.8380681818181817</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" ref="I5:I23" si="1">D5/479</f>
-        <v>0.38622129436325681</v>
+        <f t="shared" ref="I5:I23" si="1">479/D5</f>
+        <v>2.5891891891891894</v>
       </c>
       <c r="J5" s="10">
-        <f t="shared" ref="J5:J23" si="2">E5/456</f>
-        <v>0.3442982456140351</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J5:J23" si="2">456/E5</f>
+        <v>2.9044585987261144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -683,18 +681,18 @@
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>0.34434434434434436</v>
+        <v>2.9040697674418605</v>
       </c>
       <c r="I6" s="9">
         <f t="shared" si="1"/>
-        <v>0.37995824634655534</v>
+        <v>2.6318681318681318</v>
       </c>
       <c r="J6" s="10">
         <f t="shared" si="2"/>
-        <v>0.33771929824561403</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+        <v>2.9610389610389611</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
@@ -712,18 +710,18 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>0.3263263263263263</v>
+        <v>3.0644171779141103</v>
       </c>
       <c r="I7" s="9">
         <f t="shared" si="1"/>
-        <v>0.36116910229645094</v>
+        <v>2.7687861271676302</v>
       </c>
       <c r="J7" s="10">
         <f t="shared" si="2"/>
-        <v>0.31798245614035087</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.1448275862068966</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>17</v>
       </c>
@@ -741,18 +739,18 @@
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>0.31731731731731733</v>
+        <v>3.1514195583596214</v>
       </c>
       <c r="I8" s="9">
         <f t="shared" si="1"/>
-        <v>0.35281837160751567</v>
+        <v>2.834319526627219</v>
       </c>
       <c r="J8" s="10">
         <f t="shared" si="2"/>
-        <v>0.30921052631578949</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.2340425531914891</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -770,18 +768,18 @@
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>0.31431431431431434</v>
+        <v>3.1815286624203822</v>
       </c>
       <c r="I9" s="9">
         <f t="shared" si="1"/>
-        <v>0.35073068893528186</v>
+        <v>2.8511904761904763</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="2"/>
-        <v>0.30701754385964913</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.2571428571428571</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
@@ -799,18 +797,18 @@
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>0.31431431431431434</v>
+        <v>3.1815286624203822</v>
       </c>
       <c r="I10" s="9">
         <f t="shared" si="1"/>
-        <v>0.35073068893528186</v>
+        <v>2.8511904761904763</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="2"/>
-        <v>0.30701754385964913</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.2571428571428571</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
@@ -828,18 +826,18 @@
       </c>
       <c r="H11" s="9">
         <f t="shared" si="0"/>
-        <v>0.31431431431431434</v>
+        <v>3.1815286624203822</v>
       </c>
       <c r="I11" s="9">
         <f t="shared" si="1"/>
-        <v>0.35073068893528186</v>
+        <v>2.8511904761904763</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="2"/>
-        <v>0.30701754385964913</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.2571428571428571</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
@@ -857,18 +855,18 @@
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>0.31431431431431434</v>
+        <v>3.1815286624203822</v>
       </c>
       <c r="I12" s="9">
         <f t="shared" si="1"/>
-        <v>0.35073068893528186</v>
+        <v>2.8511904761904763</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" si="2"/>
-        <v>0.30701754385964913</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.2571428571428571</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>2</v>
       </c>
@@ -885,19 +883,19 @@
         <v>2</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" ref="H13:H23" si="3">C13/999</f>
-        <v>0.3733733733733734</v>
+        <f t="shared" si="0"/>
+        <v>2.6782841823056298</v>
       </c>
       <c r="I13" s="9">
         <f t="shared" si="1"/>
-        <v>0.40709812108559501</v>
+        <v>2.4564102564102566</v>
       </c>
       <c r="J13" s="10">
-        <f>E13/456</f>
-        <v>0.35964912280701755</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>2.7804878048780486</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -914,19 +912,19 @@
         <v>3</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I14" s="9">
         <f t="shared" si="1"/>
-        <v>0.36116910229645094</v>
+        <v>2.7687861271676302</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" si="2"/>
-        <v>0.3267543859649123</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.0604026845637584</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
         <v>4</v>
       </c>
@@ -943,19 +941,19 @@
         <v>4</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="3"/>
-        <v>0.32832832832832831</v>
+        <f t="shared" si="0"/>
+        <v>3.0457317073170733</v>
       </c>
       <c r="I15" s="9">
         <f t="shared" si="1"/>
-        <v>0.35490605427974947</v>
+        <v>2.8176470588235296</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" si="2"/>
-        <v>0.32236842105263158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>3.1020408163265305</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
         <v>5</v>
       </c>
@@ -972,19 +970,19 @@
         <v>5</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="3"/>
-        <v>0.31831831831831831</v>
+        <f t="shared" si="0"/>
+        <v>3.141509433962264</v>
       </c>
       <c r="I16" s="9">
         <f t="shared" si="1"/>
-        <v>0.3444676409185804</v>
+        <v>2.9030303030303028</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="2"/>
-        <v>0.31578947368421051</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.1666666666666665</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
@@ -1001,19 +999,19 @@
         <v>6</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29929929929929933</v>
+        <f t="shared" si="0"/>
+        <v>3.3411371237458196</v>
       </c>
       <c r="I17" s="9">
         <f t="shared" si="1"/>
-        <v>0.32359081419624219</v>
+        <v>3.0903225806451613</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="2"/>
-        <v>0.29605263157894735</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.3777777777777778</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>7</v>
       </c>
@@ -1030,19 +1028,19 @@
         <v>7</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29629629629629628</v>
+        <f t="shared" si="0"/>
+        <v>3.375</v>
       </c>
       <c r="I18" s="9">
         <f t="shared" si="1"/>
-        <v>0.32150313152400833</v>
+        <v>3.1103896103896105</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="2"/>
-        <v>0.29385964912280704</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.4029850746268657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>8</v>
       </c>
@@ -1059,19 +1057,19 @@
         <v>8</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29429429429429427</v>
+        <f t="shared" si="0"/>
+        <v>3.3979591836734695</v>
       </c>
       <c r="I19" s="9">
         <f t="shared" si="1"/>
-        <v>0.31941544885177453</v>
+        <v>3.130718954248366</v>
       </c>
       <c r="J19" s="10">
         <f t="shared" si="2"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
@@ -1088,19 +1086,19 @@
         <v>9</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29329329329329329</v>
+        <f t="shared" si="0"/>
+        <v>3.4095563139931739</v>
       </c>
       <c r="I20" s="9">
         <f t="shared" si="1"/>
-        <v>0.31941544885177453</v>
+        <v>3.130718954248366</v>
       </c>
       <c r="J20" s="10">
         <f t="shared" si="2"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>10</v>
       </c>
@@ -1117,19 +1115,19 @@
         <v>10</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="3"/>
-        <v>0.29229229229229231</v>
+        <f t="shared" si="0"/>
+        <v>3.4212328767123288</v>
       </c>
       <c r="I21" s="9">
         <f t="shared" si="1"/>
-        <v>0.31941544885177453</v>
+        <v>3.130718954248366</v>
       </c>
       <c r="J21" s="10">
         <f t="shared" si="2"/>
-        <v>0.29166666666666669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>11</v>
       </c>
@@ -1146,19 +1144,19 @@
         <v>11</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="3"/>
-        <v>0.27327327327327328</v>
+        <f t="shared" si="0"/>
+        <v>3.6593406593406592</v>
       </c>
       <c r="I22" s="9">
         <f t="shared" si="1"/>
-        <v>0.30271398747390399</v>
+        <v>3.3034482758620691</v>
       </c>
       <c r="J22" s="10">
         <f t="shared" si="2"/>
-        <v>0.27631578947368424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>3.6190476190476191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>12</v>
       </c>
@@ -1174,30 +1172,30 @@
       <c r="G23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="11">
-        <f t="shared" si="3"/>
-        <v>0.26826826826826827</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="9">
+        <f t="shared" si="0"/>
+        <v>3.7276119402985075</v>
+      </c>
+      <c r="I23" s="9">
         <f t="shared" si="1"/>
-        <v>0.29853862212943633</v>
-      </c>
-      <c r="J23" s="12">
+        <v>3.3496503496503496</v>
+      </c>
+      <c r="J23" s="10">
         <f t="shared" si="2"/>
-        <v>0.27192982456140352</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+        <v>3.6774193548387095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1327,7 +1325,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1392,7 +1390,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A30+1</f>
         <v>3</v>
@@ -1458,9 +1456,9 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ref="A32:A47" si="4">A31+1</f>
+        <f t="shared" ref="A32:A47" si="3">A31+1</f>
         <v>4</v>
       </c>
       <c r="B32">
@@ -1524,9 +1522,9 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B33">
@@ -1590,9 +1588,9 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B34">
@@ -1656,9 +1654,9 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B35">
@@ -1722,9 +1720,9 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B36">
@@ -1788,9 +1786,9 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B37">
@@ -1854,9 +1852,9 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B38">
@@ -1920,9 +1918,9 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B39">
@@ -1986,9 +1984,9 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B40">
@@ -2052,9 +2050,9 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B41">
@@ -2118,9 +2116,9 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B42">
@@ -2184,9 +2182,9 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B43">
@@ -2250,9 +2248,9 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B44">
@@ -2316,9 +2314,9 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B45">
@@ -2382,9 +2380,9 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B46">
@@ -2448,9 +2446,9 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B47">
@@ -2514,7 +2512,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>A47+1</f>
         <v>20</v>
@@ -2580,262 +2578,262 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>27</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49" s="11">
         <f>AVERAGE(B29:B48)</f>
         <v>355.6</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="11">
         <f>AVERAGE(C29:C48)</f>
         <v>359.2</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="11">
         <f>AVERAGE(D29:D48)</f>
         <v>357.45</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="11">
         <f>AVERAGE(E29:E48)</f>
         <v>362.3</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="11">
         <f>AVERAGE(F29:F48)</f>
         <v>369.6</v>
       </c>
-      <c r="G49" s="13">
-        <f t="shared" ref="G49:U49" si="5">AVERAGE(G29:G48)</f>
+      <c r="G49" s="11">
+        <f t="shared" ref="G49:U49" si="4">AVERAGE(G29:G48)</f>
         <v>376.8</v>
       </c>
-      <c r="H49" s="13">
-        <f t="shared" si="5"/>
+      <c r="H49" s="11">
+        <f t="shared" si="4"/>
         <v>374.75</v>
       </c>
-      <c r="I49" s="13">
-        <f t="shared" si="5"/>
+      <c r="I49" s="11">
+        <f t="shared" si="4"/>
         <v>375.65</v>
       </c>
-      <c r="J49" s="13">
-        <f t="shared" si="5"/>
+      <c r="J49" s="11">
+        <f t="shared" si="4"/>
         <v>388.7</v>
       </c>
-      <c r="K49" s="13">
-        <f t="shared" si="5"/>
+      <c r="K49" s="11">
+        <f t="shared" si="4"/>
         <v>354.3</v>
       </c>
-      <c r="L49" s="13">
-        <f t="shared" si="5"/>
+      <c r="L49" s="11">
+        <f t="shared" si="4"/>
         <v>360.05</v>
       </c>
-      <c r="M49" s="13">
-        <f t="shared" si="5"/>
+      <c r="M49" s="11">
+        <f t="shared" si="4"/>
         <v>360.4</v>
       </c>
-      <c r="N49" s="13">
-        <f t="shared" si="5"/>
+      <c r="N49" s="11">
+        <f t="shared" si="4"/>
         <v>369.55</v>
       </c>
-      <c r="O49" s="13">
-        <f t="shared" si="5"/>
+      <c r="O49" s="11">
+        <f t="shared" si="4"/>
         <v>394.1</v>
       </c>
-      <c r="P49" s="13">
-        <f t="shared" si="5"/>
+      <c r="P49" s="11">
+        <f t="shared" si="4"/>
         <v>400.5</v>
       </c>
-      <c r="Q49" s="13">
-        <f t="shared" si="5"/>
+      <c r="Q49" s="11">
+        <f t="shared" si="4"/>
         <v>427.85</v>
       </c>
-      <c r="R49" s="13">
-        <f t="shared" si="5"/>
+      <c r="R49" s="11">
+        <f t="shared" si="4"/>
         <v>450.3</v>
       </c>
-      <c r="S49" s="13">
-        <f t="shared" si="5"/>
+      <c r="S49" s="11">
+        <f t="shared" si="4"/>
         <v>467.6</v>
       </c>
-      <c r="T49" s="13">
-        <f t="shared" si="5"/>
+      <c r="T49" s="11">
+        <f t="shared" si="4"/>
         <v>1012.75</v>
       </c>
-      <c r="U49" s="13">
-        <f t="shared" si="5"/>
+      <c r="U49" s="11">
+        <f t="shared" si="4"/>
         <v>1839.5</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50" s="11">
         <f>STDEV(B29:B49)</f>
         <v>12.701968351401289</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <f>STDEV(C29:C49)</f>
         <v>10.428806259586954</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="11">
         <f>STDEV(D29:D49)</f>
         <v>7.5463567368631592</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="11">
         <f>STDEV(E29:E49)</f>
         <v>11.220962525559024</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="11">
         <f>STDEV(F29:F49)</f>
         <v>14.575321608801637</v>
       </c>
-      <c r="G50" s="13">
-        <f t="shared" ref="G50:U50" si="6">STDEV(G29:G49)</f>
+      <c r="G50" s="11">
+        <f t="shared" ref="G50:U50" si="5">STDEV(G29:G49)</f>
         <v>13.048371545905644</v>
       </c>
-      <c r="H50" s="13">
-        <f t="shared" si="6"/>
+      <c r="H50" s="11">
+        <f t="shared" si="5"/>
         <v>11.894851827576501</v>
       </c>
-      <c r="I50" s="13">
-        <f t="shared" si="6"/>
+      <c r="I50" s="11">
+        <f t="shared" si="5"/>
         <v>8.020442631176909</v>
       </c>
-      <c r="J50" s="13">
-        <f t="shared" si="6"/>
+      <c r="J50" s="11">
+        <f t="shared" si="5"/>
         <v>16.068914089010498</v>
       </c>
-      <c r="K50" s="13">
-        <f t="shared" si="6"/>
+      <c r="K50" s="11">
+        <f t="shared" si="5"/>
         <v>8.9224436114777426</v>
       </c>
-      <c r="L50" s="13">
-        <f t="shared" si="6"/>
+      <c r="L50" s="11">
+        <f t="shared" si="5"/>
         <v>12.959456007101533</v>
       </c>
-      <c r="M50" s="13">
-        <f t="shared" si="6"/>
+      <c r="M50" s="11">
+        <f t="shared" si="5"/>
         <v>11.863389060466659</v>
       </c>
-      <c r="N50" s="13">
-        <f t="shared" si="6"/>
+      <c r="N50" s="11">
+        <f t="shared" si="5"/>
         <v>15.787574227854003</v>
       </c>
-      <c r="O50" s="13">
-        <f t="shared" si="6"/>
+      <c r="O50" s="11">
+        <f t="shared" si="5"/>
         <v>12.189749792346026</v>
       </c>
-      <c r="P50" s="13">
-        <f t="shared" si="6"/>
+      <c r="P50" s="11">
+        <f t="shared" si="5"/>
         <v>21.397429752192203</v>
       </c>
-      <c r="Q50" s="13">
-        <f t="shared" si="6"/>
+      <c r="Q50" s="11">
+        <f t="shared" si="5"/>
         <v>15.707561873187066</v>
       </c>
-      <c r="R50" s="13">
-        <f t="shared" si="6"/>
+      <c r="R50" s="11">
+        <f t="shared" si="5"/>
         <v>22.865038814749475</v>
       </c>
-      <c r="S50" s="13">
-        <f t="shared" si="6"/>
+      <c r="S50" s="11">
+        <f t="shared" si="5"/>
         <v>14.108153670838718</v>
       </c>
-      <c r="T50" s="13">
-        <f t="shared" si="6"/>
+      <c r="T50" s="11">
+        <f t="shared" si="5"/>
         <v>25.193004981542</v>
       </c>
-      <c r="U50" s="13">
-        <f t="shared" si="6"/>
+      <c r="U50" s="11">
+        <f t="shared" si="5"/>
         <v>30.822881111278353</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51" s="11">
         <f>TRIMMEAN(B29:B48,0.1)</f>
         <v>353.72222222222223</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <f>TRIMMEAN(C29:C48,0.1)</f>
         <v>358.61111111111109</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="11">
         <f>TRIMMEAN(D29:D48,0.1)</f>
         <v>356.61111111111109</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="11">
         <f>TRIMMEAN(E29:E48,0.1)</f>
         <v>361.88888888888891</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="11">
         <f>TRIMMEAN(F29:F48,0.1)</f>
         <v>369.61111111111109</v>
       </c>
-      <c r="G51" s="13">
-        <f t="shared" ref="G51:U51" si="7">TRIMMEAN(G29:G48,0.1)</f>
+      <c r="G51" s="11">
+        <f t="shared" ref="G51:U51" si="6">TRIMMEAN(G29:G48,0.1)</f>
         <v>376.22222222222223</v>
       </c>
-      <c r="H51" s="13">
-        <f t="shared" si="7"/>
+      <c r="H51" s="11">
+        <f t="shared" si="6"/>
         <v>374.61111111111109</v>
       </c>
-      <c r="I51" s="13">
-        <f t="shared" si="7"/>
+      <c r="I51" s="11">
+        <f t="shared" si="6"/>
         <v>375.27777777777777</v>
       </c>
-      <c r="J51" s="13">
-        <f t="shared" si="7"/>
+      <c r="J51" s="11">
+        <f t="shared" si="6"/>
         <v>388.44444444444446</v>
       </c>
-      <c r="K51" s="13">
-        <f t="shared" si="7"/>
+      <c r="K51" s="11">
+        <f t="shared" si="6"/>
         <v>354.38888888888891</v>
       </c>
-      <c r="L51" s="13">
-        <f t="shared" si="7"/>
+      <c r="L51" s="11">
+        <f t="shared" si="6"/>
         <v>358.83333333333331</v>
       </c>
-      <c r="M51" s="13">
-        <f t="shared" si="7"/>
+      <c r="M51" s="11">
+        <f t="shared" si="6"/>
         <v>360.33333333333331</v>
       </c>
-      <c r="N51" s="13">
-        <f t="shared" si="7"/>
+      <c r="N51" s="11">
+        <f t="shared" si="6"/>
         <v>367.83333333333331</v>
       </c>
-      <c r="O51" s="13">
-        <f t="shared" si="7"/>
+      <c r="O51" s="11">
+        <f t="shared" si="6"/>
         <v>394</v>
       </c>
-      <c r="P51" s="13">
-        <f t="shared" si="7"/>
+      <c r="P51" s="11">
+        <f t="shared" si="6"/>
         <v>398.5</v>
       </c>
-      <c r="Q51" s="13">
-        <f t="shared" si="7"/>
+      <c r="Q51" s="11">
+        <f t="shared" si="6"/>
         <v>427.44444444444446</v>
       </c>
-      <c r="R51" s="13">
-        <f t="shared" si="7"/>
+      <c r="R51" s="11">
+        <f t="shared" si="6"/>
         <v>449.38888888888891</v>
       </c>
-      <c r="S51" s="13">
-        <f t="shared" si="7"/>
+      <c r="S51" s="11">
+        <f t="shared" si="6"/>
         <v>467.16666666666669</v>
       </c>
-      <c r="T51" s="13">
-        <f t="shared" si="7"/>
+      <c r="T51" s="11">
+        <f t="shared" si="6"/>
         <v>1012.1111111111111</v>
       </c>
-      <c r="U51" s="13">
-        <f t="shared" si="7"/>
+      <c r="U51" s="11">
+        <f t="shared" si="6"/>
         <v>1837.8333333333333</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -2844,175 +2842,175 @@
         <v>345</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:U52" si="8">MIN(C29:C48)</f>
+        <f t="shared" ref="C52:U52" si="7">MIN(C29:C48)</f>
         <v>346</v>
       </c>
       <c r="D52">
+        <f t="shared" si="7"/>
+        <v>349</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>347</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>346</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>358</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>357</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>365</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>364</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>341</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>342</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>355</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>373</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>376</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="7"/>
+        <v>405</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="7"/>
+        <v>417</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="7"/>
+        <v>444</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="7"/>
+        <v>979</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="7"/>
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B53" s="11">
+        <f>B49-$B$122</f>
+        <v>195.60000000000002</v>
+      </c>
+      <c r="C53" s="11">
+        <f t="shared" ref="C53:U53" si="8">C49-$B$122</f>
+        <v>199.2</v>
+      </c>
+      <c r="D53" s="11">
         <f t="shared" si="8"/>
-        <v>349</v>
-      </c>
-      <c r="E52">
+        <v>197.45</v>
+      </c>
+      <c r="E53" s="11">
         <f t="shared" si="8"/>
-        <v>347</v>
-      </c>
-      <c r="F52">
+        <v>202.3</v>
+      </c>
+      <c r="F53" s="11">
         <f t="shared" si="8"/>
-        <v>346</v>
-      </c>
-      <c r="G52">
+        <v>209.60000000000002</v>
+      </c>
+      <c r="G53" s="11">
         <f t="shared" si="8"/>
-        <v>358</v>
-      </c>
-      <c r="H52">
+        <v>216.8</v>
+      </c>
+      <c r="H53" s="11">
         <f t="shared" si="8"/>
-        <v>357</v>
-      </c>
-      <c r="I52">
+        <v>214.75</v>
+      </c>
+      <c r="I53" s="11">
         <f t="shared" si="8"/>
-        <v>365</v>
-      </c>
-      <c r="J52">
+        <v>215.64999999999998</v>
+      </c>
+      <c r="J53" s="11">
         <f t="shared" si="8"/>
-        <v>364</v>
-      </c>
-      <c r="K52">
+        <v>228.7</v>
+      </c>
+      <c r="K53" s="11">
         <f t="shared" si="8"/>
-        <v>336</v>
-      </c>
-      <c r="L52">
+        <v>194.3</v>
+      </c>
+      <c r="L53" s="11">
         <f t="shared" si="8"/>
-        <v>341</v>
-      </c>
-      <c r="M52">
+        <v>200.05</v>
+      </c>
+      <c r="M53" s="11">
         <f t="shared" si="8"/>
-        <v>342</v>
-      </c>
-      <c r="N52">
+        <v>200.39999999999998</v>
+      </c>
+      <c r="N53" s="11">
         <f t="shared" si="8"/>
-        <v>355</v>
-      </c>
-      <c r="O52">
+        <v>209.55</v>
+      </c>
+      <c r="O53" s="11">
         <f t="shared" si="8"/>
-        <v>373</v>
-      </c>
-      <c r="P52">
+        <v>234.10000000000002</v>
+      </c>
+      <c r="P53" s="11">
         <f t="shared" si="8"/>
-        <v>376</v>
-      </c>
-      <c r="Q52">
+        <v>240.5</v>
+      </c>
+      <c r="Q53" s="11">
         <f t="shared" si="8"/>
-        <v>405</v>
-      </c>
-      <c r="R52">
+        <v>267.85000000000002</v>
+      </c>
+      <c r="R53" s="11">
         <f t="shared" si="8"/>
-        <v>417</v>
-      </c>
-      <c r="S52">
+        <v>290.3</v>
+      </c>
+      <c r="S53" s="11">
         <f t="shared" si="8"/>
-        <v>444</v>
-      </c>
-      <c r="T52">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="T53" s="11">
         <f t="shared" si="8"/>
-        <v>979</v>
-      </c>
-      <c r="U52">
+        <v>852.75</v>
+      </c>
+      <c r="U53" s="11">
         <f t="shared" si="8"/>
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B53">
-        <f>B52-$B$122</f>
-        <v>185</v>
-      </c>
-      <c r="C53">
-        <f t="shared" ref="C53:U53" si="9">C52-$B$122</f>
-        <v>186</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="9"/>
-        <v>189</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="9"/>
-        <v>187</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="9"/>
-        <v>186</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="9"/>
-        <v>198</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="9"/>
-        <v>197</v>
-      </c>
-      <c r="I53">
-        <f t="shared" si="9"/>
-        <v>205</v>
-      </c>
-      <c r="J53">
-        <f t="shared" si="9"/>
-        <v>204</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="9"/>
-        <v>176</v>
-      </c>
-      <c r="L53">
-        <f t="shared" si="9"/>
-        <v>181</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="9"/>
-        <v>182</v>
-      </c>
-      <c r="N53">
-        <f t="shared" si="9"/>
-        <v>195</v>
-      </c>
-      <c r="O53">
-        <f t="shared" si="9"/>
-        <v>213</v>
-      </c>
-      <c r="P53">
-        <f t="shared" si="9"/>
-        <v>216</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="9"/>
-        <v>245</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="9"/>
-        <v>257</v>
-      </c>
-      <c r="S53">
-        <f t="shared" si="9"/>
-        <v>284</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="9"/>
-        <v>819</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="9"/>
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+        <v>1679.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>25</v>
       </c>
@@ -3077,7 +3075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -3142,7 +3140,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>A66+1</f>
         <v>3</v>
@@ -3273,9 +3271,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
-        <f t="shared" ref="A68:A83" si="10">A67+1</f>
+        <f t="shared" ref="A68:A83" si="9">A67+1</f>
         <v>4</v>
       </c>
       <c r="B68">
@@ -3339,9 +3337,9 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="B69">
@@ -3405,9 +3403,9 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="B70">
@@ -3471,9 +3469,9 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="B71">
@@ -3537,9 +3535,9 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="B72">
@@ -3603,9 +3601,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="B73">
@@ -3669,9 +3667,9 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="B74">
@@ -3735,9 +3733,9 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>11</v>
       </c>
       <c r="B75">
@@ -3801,9 +3799,9 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="B76">
@@ -3867,9 +3865,9 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13</v>
       </c>
       <c r="B77">
@@ -3933,9 +3931,9 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="B78">
@@ -3999,9 +3997,9 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="B79">
@@ -4065,9 +4063,9 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="B80">
@@ -4131,9 +4129,9 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17</v>
       </c>
       <c r="B81">
@@ -4197,9 +4195,9 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="B82">
@@ -4263,9 +4261,9 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>19</v>
       </c>
       <c r="B83">
@@ -4329,7 +4327,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84">
         <f>A83+1</f>
         <v>20</v>
@@ -4395,262 +4393,262 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>27</v>
       </c>
-      <c r="B85" s="13">
-        <f t="shared" ref="B85:U85" si="11">AVERAGE(B65:B84)</f>
+      <c r="B85" s="11">
+        <f t="shared" ref="B85:U85" si="10">AVERAGE(B65:B84)</f>
         <v>389.1</v>
       </c>
-      <c r="C85" s="13">
-        <f t="shared" si="11"/>
+      <c r="C85" s="11">
+        <f t="shared" si="10"/>
         <v>403.35</v>
       </c>
-      <c r="D85" s="13">
-        <f t="shared" si="11"/>
+      <c r="D85" s="11">
+        <f t="shared" si="10"/>
         <v>389.1</v>
       </c>
-      <c r="E85" s="13">
-        <f t="shared" si="11"/>
+      <c r="E85" s="11">
+        <f t="shared" si="10"/>
         <v>395.4</v>
       </c>
-      <c r="F85" s="13">
-        <f t="shared" si="11"/>
+      <c r="F85" s="11">
+        <f t="shared" si="10"/>
         <v>395.35</v>
       </c>
-      <c r="G85" s="13">
-        <f t="shared" si="11"/>
+      <c r="G85" s="11">
+        <f t="shared" si="10"/>
         <v>394.4</v>
       </c>
-      <c r="H85" s="13">
-        <f t="shared" si="11"/>
+      <c r="H85" s="11">
+        <f t="shared" si="10"/>
         <v>401.75</v>
       </c>
-      <c r="I85" s="13">
-        <f t="shared" si="11"/>
+      <c r="I85" s="11">
+        <f t="shared" si="10"/>
         <v>395.3</v>
       </c>
-      <c r="J85" s="13">
-        <f t="shared" si="11"/>
+      <c r="J85" s="11">
+        <f t="shared" si="10"/>
         <v>410.5</v>
       </c>
-      <c r="K85" s="13">
-        <f t="shared" si="11"/>
+      <c r="K85" s="11">
+        <f t="shared" si="10"/>
         <v>392</v>
       </c>
-      <c r="L85" s="13">
-        <f t="shared" si="11"/>
+      <c r="L85" s="11">
+        <f t="shared" si="10"/>
         <v>394.05</v>
       </c>
-      <c r="M85" s="13">
-        <f t="shared" si="11"/>
+      <c r="M85" s="11">
+        <f t="shared" si="10"/>
         <v>398.9</v>
       </c>
-      <c r="N85" s="13">
-        <f t="shared" si="11"/>
+      <c r="N85" s="11">
+        <f t="shared" si="10"/>
         <v>408.55</v>
       </c>
-      <c r="O85" s="13">
-        <f t="shared" si="11"/>
+      <c r="O85" s="11">
+        <f t="shared" si="10"/>
         <v>423.6</v>
       </c>
-      <c r="P85" s="13">
-        <f t="shared" si="11"/>
+      <c r="P85" s="11">
+        <f t="shared" si="10"/>
         <v>413.4</v>
       </c>
-      <c r="Q85" s="13">
-        <f t="shared" si="11"/>
+      <c r="Q85" s="11">
+        <f t="shared" si="10"/>
         <v>431.25</v>
       </c>
-      <c r="R85" s="13">
-        <f t="shared" si="11"/>
+      <c r="R85" s="11">
+        <f t="shared" si="10"/>
         <v>439.25</v>
       </c>
-      <c r="S85" s="13">
-        <f t="shared" si="11"/>
+      <c r="S85" s="11">
+        <f t="shared" si="10"/>
         <v>458.4</v>
       </c>
-      <c r="T85" s="13">
-        <f t="shared" si="11"/>
+      <c r="T85" s="11">
+        <f t="shared" si="10"/>
         <v>732.3</v>
       </c>
-      <c r="U85" s="13">
-        <f t="shared" si="11"/>
+      <c r="U85" s="11">
+        <f t="shared" si="10"/>
         <v>1132.1500000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>29</v>
       </c>
-      <c r="B86" s="13">
-        <f t="shared" ref="B86:U86" si="12">STDEV(B65:B85)</f>
+      <c r="B86" s="11">
+        <f t="shared" ref="B86:U86" si="11">STDEV(B65:B85)</f>
         <v>18.501081049495461</v>
       </c>
-      <c r="C86" s="13">
-        <f t="shared" si="12"/>
+      <c r="C86" s="11">
+        <f t="shared" si="11"/>
         <v>42.597271039351696</v>
       </c>
-      <c r="D86" s="13">
-        <f t="shared" si="12"/>
+      <c r="D86" s="11">
+        <f t="shared" si="11"/>
         <v>10.173003489628814</v>
       </c>
-      <c r="E86" s="13">
-        <f t="shared" si="12"/>
+      <c r="E86" s="11">
+        <f t="shared" si="11"/>
         <v>15.143975699927678</v>
       </c>
-      <c r="F86" s="13">
-        <f t="shared" si="12"/>
+      <c r="F86" s="11">
+        <f t="shared" si="11"/>
         <v>20.797295497251561</v>
       </c>
-      <c r="G86" s="13">
-        <f t="shared" si="12"/>
+      <c r="G86" s="11">
+        <f t="shared" si="11"/>
         <v>14.178857499812882</v>
       </c>
-      <c r="H86" s="13">
-        <f t="shared" si="12"/>
+      <c r="H86" s="11">
+        <f t="shared" si="11"/>
         <v>17.299927745513852</v>
       </c>
-      <c r="I86" s="13">
-        <f t="shared" si="12"/>
+      <c r="I86" s="11">
+        <f t="shared" si="11"/>
         <v>17.239779580957528</v>
       </c>
-      <c r="J86" s="13">
-        <f t="shared" si="12"/>
+      <c r="J86" s="11">
+        <f t="shared" si="11"/>
         <v>31.355222850427964</v>
       </c>
-      <c r="K86" s="13">
-        <f t="shared" si="12"/>
+      <c r="K86" s="11">
+        <f t="shared" si="11"/>
         <v>13.345411196362591</v>
       </c>
-      <c r="L86" s="13">
-        <f t="shared" si="12"/>
+      <c r="L86" s="11">
+        <f t="shared" si="11"/>
         <v>15.068095433730171</v>
       </c>
-      <c r="M86" s="13">
-        <f t="shared" si="12"/>
+      <c r="M86" s="11">
+        <f t="shared" si="11"/>
         <v>22.3268896176785</v>
       </c>
-      <c r="N86" s="13">
-        <f t="shared" si="12"/>
+      <c r="N86" s="11">
+        <f t="shared" si="11"/>
         <v>14.823882757226595</v>
       </c>
-      <c r="O86" s="13">
-        <f t="shared" si="12"/>
+      <c r="O86" s="11">
+        <f t="shared" si="11"/>
         <v>78.296487788405884</v>
       </c>
-      <c r="P86" s="13">
-        <f t="shared" si="12"/>
+      <c r="P86" s="11">
+        <f t="shared" si="11"/>
         <v>14.065560778013795</v>
       </c>
-      <c r="Q86" s="13">
-        <f t="shared" si="12"/>
+      <c r="Q86" s="11">
+        <f t="shared" si="11"/>
         <v>10.568230693924125</v>
       </c>
-      <c r="R86" s="13">
-        <f t="shared" si="12"/>
+      <c r="R86" s="11">
+        <f t="shared" si="11"/>
         <v>16.117924804390917</v>
       </c>
-      <c r="S86" s="13">
-        <f t="shared" si="12"/>
+      <c r="S86" s="11">
+        <f t="shared" si="11"/>
         <v>11.804236527620073</v>
       </c>
-      <c r="T86" s="13">
-        <f t="shared" si="12"/>
+      <c r="T86" s="11">
+        <f t="shared" si="11"/>
         <v>19.220041623263981</v>
       </c>
-      <c r="U86" s="13">
-        <f t="shared" si="12"/>
+      <c r="U86" s="11">
+        <f t="shared" si="11"/>
         <v>32.548847905878326</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>28</v>
       </c>
-      <c r="B87" s="13">
+      <c r="B87" s="11">
         <f>TRIMMEAN(B65:B84,0.1)</f>
         <v>387.44444444444446</v>
       </c>
-      <c r="C87" s="13">
+      <c r="C87" s="11">
         <f>TRIMMEAN(C65:C84,0.1)</f>
         <v>395.5</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D87" s="11">
         <f>TRIMMEAN(D65:D84,0.1)</f>
         <v>388.5</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="11">
         <f>TRIMMEAN(E65:E84,0.1)</f>
         <v>395.05555555555554</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="11">
         <f>TRIMMEAN(F65:F84,0.1)</f>
         <v>393</v>
       </c>
-      <c r="G87" s="13">
-        <f t="shared" ref="G87:U87" si="13">TRIMMEAN(G65:G84,0.1)</f>
+      <c r="G87" s="11">
+        <f t="shared" ref="G87:U87" si="12">TRIMMEAN(G65:G84,0.1)</f>
         <v>394.05555555555554</v>
       </c>
-      <c r="H87" s="13">
-        <f t="shared" si="13"/>
+      <c r="H87" s="11">
+        <f t="shared" si="12"/>
         <v>401.44444444444446</v>
       </c>
-      <c r="I87" s="13">
-        <f t="shared" si="13"/>
+      <c r="I87" s="11">
+        <f t="shared" si="12"/>
         <v>393.94444444444446</v>
       </c>
-      <c r="J87" s="13">
-        <f t="shared" si="13"/>
+      <c r="J87" s="11">
+        <f t="shared" si="12"/>
         <v>407</v>
       </c>
-      <c r="K87" s="13">
-        <f t="shared" si="13"/>
+      <c r="K87" s="11">
+        <f t="shared" si="12"/>
         <v>391.72222222222223</v>
       </c>
-      <c r="L87" s="13">
-        <f t="shared" si="13"/>
+      <c r="L87" s="11">
+        <f t="shared" si="12"/>
         <v>393.16666666666669</v>
       </c>
-      <c r="M87" s="13">
-        <f t="shared" si="13"/>
+      <c r="M87" s="11">
+        <f t="shared" si="12"/>
         <v>396.44444444444446</v>
       </c>
-      <c r="N87" s="13">
-        <f t="shared" si="13"/>
+      <c r="N87" s="11">
+        <f t="shared" si="12"/>
         <v>408.94444444444446</v>
       </c>
-      <c r="O87" s="13">
-        <f t="shared" si="13"/>
+      <c r="O87" s="11">
+        <f t="shared" si="12"/>
         <v>406.88888888888891</v>
       </c>
-      <c r="P87" s="13">
-        <f t="shared" si="13"/>
+      <c r="P87" s="11">
+        <f t="shared" si="12"/>
         <v>413.11111111111109</v>
       </c>
-      <c r="Q87" s="13">
-        <f t="shared" si="13"/>
+      <c r="Q87" s="11">
+        <f t="shared" si="12"/>
         <v>430.94444444444446</v>
       </c>
-      <c r="R87" s="13">
-        <f t="shared" si="13"/>
+      <c r="R87" s="11">
+        <f t="shared" si="12"/>
         <v>437.66666666666669</v>
       </c>
-      <c r="S87" s="13">
-        <f t="shared" si="13"/>
+      <c r="S87" s="11">
+        <f t="shared" si="12"/>
         <v>458.27777777777777</v>
       </c>
-      <c r="T87" s="13">
-        <f t="shared" si="13"/>
+      <c r="T87" s="11">
+        <f t="shared" si="12"/>
         <v>731.33333333333337</v>
       </c>
-      <c r="U87" s="13">
-        <f t="shared" si="13"/>
+      <c r="U87" s="11">
+        <f t="shared" si="12"/>
         <v>1131.0555555555557</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -4659,178 +4657,178 @@
         <v>367</v>
       </c>
       <c r="C88">
-        <f t="shared" ref="C88:U88" si="14">MIN(C65:C84)</f>
+        <f t="shared" ref="C88:U88" si="13">MIN(C65:C84)</f>
         <v>373</v>
       </c>
       <c r="D88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>372</v>
       </c>
       <c r="E88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>374</v>
       </c>
       <c r="F88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>377</v>
       </c>
       <c r="G88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>374</v>
       </c>
       <c r="H88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>377</v>
       </c>
       <c r="I88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>373</v>
       </c>
       <c r="J88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>378</v>
       </c>
       <c r="K88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>369</v>
       </c>
       <c r="L88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>372</v>
       </c>
       <c r="M88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>365</v>
       </c>
       <c r="N88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>382</v>
       </c>
       <c r="O88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>387</v>
       </c>
       <c r="P88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>388</v>
       </c>
       <c r="Q88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>415</v>
       </c>
       <c r="R88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>418</v>
       </c>
       <c r="S88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>435</v>
       </c>
       <c r="T88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>704</v>
       </c>
       <c r="U88">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>1089</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>32</v>
       </c>
-      <c r="B89">
-        <f>B88-$B$122</f>
-        <v>207</v>
-      </c>
-      <c r="C89">
-        <f t="shared" ref="C89:U89" si="15">C88-$B$122</f>
-        <v>213</v>
-      </c>
-      <c r="D89">
-        <f t="shared" si="15"/>
-        <v>212</v>
-      </c>
-      <c r="E89">
-        <f t="shared" si="15"/>
-        <v>214</v>
-      </c>
-      <c r="F89">
-        <f t="shared" si="15"/>
-        <v>217</v>
-      </c>
-      <c r="G89">
-        <f t="shared" si="15"/>
-        <v>214</v>
-      </c>
-      <c r="H89">
-        <f t="shared" si="15"/>
-        <v>217</v>
-      </c>
-      <c r="I89">
-        <f t="shared" si="15"/>
-        <v>213</v>
-      </c>
-      <c r="J89">
-        <f t="shared" si="15"/>
-        <v>218</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="15"/>
-        <v>209</v>
-      </c>
-      <c r="L89">
-        <f t="shared" si="15"/>
-        <v>212</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="15"/>
-        <v>205</v>
-      </c>
-      <c r="N89">
-        <f t="shared" si="15"/>
-        <v>222</v>
-      </c>
-      <c r="O89">
-        <f t="shared" si="15"/>
-        <v>227</v>
-      </c>
-      <c r="P89">
-        <f t="shared" si="15"/>
-        <v>228</v>
-      </c>
-      <c r="Q89">
-        <f t="shared" si="15"/>
-        <v>255</v>
-      </c>
-      <c r="R89">
-        <f t="shared" si="15"/>
-        <v>258</v>
-      </c>
-      <c r="S89">
-        <f t="shared" si="15"/>
-        <v>275</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="15"/>
-        <v>544</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="15"/>
-        <v>929</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B89" s="11">
+        <f>B85-$B$122</f>
+        <v>229.10000000000002</v>
+      </c>
+      <c r="C89" s="11">
+        <f t="shared" ref="C89:U89" si="14">C85-$B$122</f>
+        <v>243.35000000000002</v>
+      </c>
+      <c r="D89" s="11">
+        <f t="shared" si="14"/>
+        <v>229.10000000000002</v>
+      </c>
+      <c r="E89" s="11">
+        <f t="shared" si="14"/>
+        <v>235.39999999999998</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="14"/>
+        <v>235.35000000000002</v>
+      </c>
+      <c r="G89" s="11">
+        <f t="shared" si="14"/>
+        <v>234.39999999999998</v>
+      </c>
+      <c r="H89" s="11">
+        <f t="shared" si="14"/>
+        <v>241.75</v>
+      </c>
+      <c r="I89" s="11">
+        <f t="shared" si="14"/>
+        <v>235.3</v>
+      </c>
+      <c r="J89" s="11">
+        <f t="shared" si="14"/>
+        <v>250.5</v>
+      </c>
+      <c r="K89" s="11">
+        <f t="shared" si="14"/>
+        <v>232</v>
+      </c>
+      <c r="L89" s="11">
+        <f t="shared" si="14"/>
+        <v>234.05</v>
+      </c>
+      <c r="M89" s="11">
+        <f t="shared" si="14"/>
+        <v>238.89999999999998</v>
+      </c>
+      <c r="N89" s="11">
+        <f t="shared" si="14"/>
+        <v>248.55</v>
+      </c>
+      <c r="O89" s="11">
+        <f t="shared" si="14"/>
+        <v>263.60000000000002</v>
+      </c>
+      <c r="P89" s="11">
+        <f t="shared" si="14"/>
+        <v>253.39999999999998</v>
+      </c>
+      <c r="Q89" s="11">
+        <f t="shared" si="14"/>
+        <v>271.25</v>
+      </c>
+      <c r="R89" s="11">
+        <f t="shared" si="14"/>
+        <v>279.25</v>
+      </c>
+      <c r="S89" s="11">
+        <f t="shared" si="14"/>
+        <v>298.39999999999998</v>
+      </c>
+      <c r="T89" s="11">
+        <f t="shared" si="14"/>
+        <v>572.29999999999995</v>
+      </c>
+      <c r="U89" s="11">
+        <f t="shared" si="14"/>
+        <v>972.15000000000009</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>25</v>
       </c>
@@ -4895,7 +4893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -4960,7 +4958,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -5025,7 +5023,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98">
         <f>A97+1</f>
         <v>3</v>
@@ -5091,9 +5089,9 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99">
-        <f t="shared" ref="A99:A114" si="16">A98+1</f>
+        <f t="shared" ref="A99:A114" si="15">A98+1</f>
         <v>4</v>
       </c>
       <c r="B99">
@@ -5157,9 +5155,9 @@
         <v>956</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="B100">
@@ -5223,9 +5221,9 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>6</v>
       </c>
       <c r="B101">
@@ -5289,9 +5287,9 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7</v>
       </c>
       <c r="B102">
@@ -5355,9 +5353,9 @@
         <v>988</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>8</v>
       </c>
       <c r="B103">
@@ -5421,9 +5419,9 @@
         <v>960</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>9</v>
       </c>
       <c r="B104">
@@ -5487,9 +5485,9 @@
         <v>833</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="B105">
@@ -5553,9 +5551,9 @@
         <v>949</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>11</v>
       </c>
       <c r="B106">
@@ -5619,9 +5617,9 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>12</v>
       </c>
       <c r="B107">
@@ -5685,9 +5683,9 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>13</v>
       </c>
       <c r="B108">
@@ -5751,9 +5749,9 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="B109">
@@ -5817,9 +5815,9 @@
         <v>986</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="B110">
@@ -5883,9 +5881,9 @@
         <v>993</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>16</v>
       </c>
       <c r="B111">
@@ -5949,9 +5947,9 @@
         <v>970</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>17</v>
       </c>
       <c r="B112">
@@ -6015,9 +6013,9 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="B113">
@@ -6081,9 +6079,9 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>19</v>
       </c>
       <c r="B114">
@@ -6147,7 +6145,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>A114+1</f>
         <v>20</v>
@@ -6213,262 +6211,262 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>27</v>
       </c>
-      <c r="B116" s="13">
-        <f t="shared" ref="B116:U116" si="17">AVERAGE(B96:B115)</f>
+      <c r="B116" s="11">
+        <f t="shared" ref="B116:U116" si="16">AVERAGE(B96:B115)</f>
         <v>346.45</v>
       </c>
-      <c r="C116" s="13">
-        <f t="shared" si="17"/>
+      <c r="C116" s="11">
+        <f t="shared" si="16"/>
         <v>354.4</v>
       </c>
-      <c r="D116" s="13">
-        <f t="shared" si="17"/>
+      <c r="D116" s="11">
+        <f t="shared" si="16"/>
         <v>356.3</v>
       </c>
-      <c r="E116" s="13">
-        <f t="shared" si="17"/>
+      <c r="E116" s="11">
+        <f t="shared" si="16"/>
         <v>353.25</v>
       </c>
-      <c r="F116" s="13">
-        <f t="shared" si="17"/>
+      <c r="F116" s="11">
+        <f t="shared" si="16"/>
         <v>356.05</v>
       </c>
-      <c r="G116" s="13">
-        <f t="shared" si="17"/>
+      <c r="G116" s="11">
+        <f t="shared" si="16"/>
         <v>357.7</v>
       </c>
-      <c r="H116" s="13">
-        <f t="shared" si="17"/>
+      <c r="H116" s="11">
+        <f t="shared" si="16"/>
         <v>353</v>
       </c>
-      <c r="I116" s="13">
-        <f t="shared" si="17"/>
+      <c r="I116" s="11">
+        <f t="shared" si="16"/>
         <v>361</v>
       </c>
-      <c r="J116" s="13">
-        <f t="shared" si="17"/>
+      <c r="J116" s="11">
+        <f t="shared" si="16"/>
         <v>365.75</v>
       </c>
-      <c r="K116" s="13">
-        <f t="shared" si="17"/>
+      <c r="K116" s="11">
+        <f t="shared" si="16"/>
         <v>355.6</v>
       </c>
-      <c r="L116" s="13">
-        <f t="shared" si="17"/>
+      <c r="L116" s="11">
+        <f t="shared" si="16"/>
         <v>355.25</v>
       </c>
-      <c r="M116" s="13">
-        <f t="shared" si="17"/>
+      <c r="M116" s="11">
+        <f t="shared" si="16"/>
         <v>350.25</v>
       </c>
-      <c r="N116" s="13">
-        <f t="shared" si="17"/>
+      <c r="N116" s="11">
+        <f t="shared" si="16"/>
         <v>357.8</v>
       </c>
-      <c r="O116" s="13">
-        <f t="shared" si="17"/>
+      <c r="O116" s="11">
+        <f t="shared" si="16"/>
         <v>392.2</v>
       </c>
-      <c r="P116" s="13">
-        <f t="shared" si="17"/>
+      <c r="P116" s="11">
+        <f t="shared" si="16"/>
         <v>366.6</v>
       </c>
-      <c r="Q116" s="13">
-        <f t="shared" si="17"/>
+      <c r="Q116" s="11">
+        <f t="shared" si="16"/>
         <v>428.6</v>
       </c>
-      <c r="R116" s="13">
-        <f t="shared" si="17"/>
+      <c r="R116" s="11">
+        <f t="shared" si="16"/>
         <v>376.15</v>
       </c>
-      <c r="S116" s="13">
-        <f t="shared" si="17"/>
+      <c r="S116" s="11">
+        <f t="shared" si="16"/>
         <v>400.4</v>
       </c>
-      <c r="T116" s="13">
-        <f t="shared" si="17"/>
+      <c r="T116" s="11">
+        <f t="shared" si="16"/>
         <v>549.65</v>
       </c>
-      <c r="U116" s="13">
-        <f t="shared" si="17"/>
+      <c r="U116" s="11">
+        <f t="shared" si="16"/>
         <v>997.9</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>29</v>
       </c>
-      <c r="B117" s="13">
-        <f t="shared" ref="B117:U117" si="18">STDEV(B96:B116)</f>
+      <c r="B117" s="11">
+        <f t="shared" ref="B117:U117" si="17">STDEV(B96:B116)</f>
         <v>12.431713478036727</v>
       </c>
-      <c r="C117" s="13">
-        <f t="shared" si="18"/>
+      <c r="C117" s="11">
+        <f t="shared" si="17"/>
         <v>7.7871689335727146</v>
       </c>
-      <c r="D117" s="13">
-        <f t="shared" si="18"/>
+      <c r="D117" s="11">
+        <f t="shared" si="17"/>
         <v>9.9453506725504646</v>
       </c>
-      <c r="E117" s="13">
-        <f t="shared" si="18"/>
+      <c r="E117" s="11">
+        <f t="shared" si="17"/>
         <v>10.953880590913888</v>
       </c>
-      <c r="F117" s="13">
-        <f t="shared" si="18"/>
+      <c r="F117" s="11">
+        <f t="shared" si="17"/>
         <v>12.326698665904022</v>
       </c>
-      <c r="G117" s="13">
-        <f t="shared" si="18"/>
+      <c r="G117" s="11">
+        <f t="shared" si="17"/>
         <v>13.240468269664786</v>
       </c>
-      <c r="H117" s="13">
-        <f t="shared" si="18"/>
+      <c r="H117" s="11">
+        <f t="shared" si="17"/>
         <v>13.674794331177344</v>
       </c>
-      <c r="I117" s="13">
-        <f t="shared" si="18"/>
+      <c r="I117" s="11">
+        <f t="shared" si="17"/>
         <v>14.27235089254745</v>
       </c>
-      <c r="J117" s="13">
-        <f t="shared" si="18"/>
+      <c r="J117" s="11">
+        <f t="shared" si="17"/>
         <v>26.776622266447273</v>
       </c>
-      <c r="K117" s="13">
-        <f t="shared" si="18"/>
+      <c r="K117" s="11">
+        <f t="shared" si="17"/>
         <v>10.316976301223145</v>
       </c>
-      <c r="L117" s="13">
-        <f t="shared" si="18"/>
+      <c r="L117" s="11">
+        <f t="shared" si="17"/>
         <v>7.2723792530367941</v>
       </c>
-      <c r="M117" s="13">
-        <f t="shared" si="18"/>
+      <c r="M117" s="11">
+        <f t="shared" si="17"/>
         <v>10.690533195308829</v>
       </c>
-      <c r="N117" s="13">
-        <f t="shared" si="18"/>
+      <c r="N117" s="11">
+        <f t="shared" si="17"/>
         <v>7.652450587883596</v>
       </c>
-      <c r="O117" s="13">
-        <f t="shared" si="18"/>
+      <c r="O117" s="11">
+        <f t="shared" si="17"/>
         <v>45.828593694329776</v>
       </c>
-      <c r="P117" s="13">
-        <f t="shared" si="18"/>
+      <c r="P117" s="11">
+        <f t="shared" si="17"/>
         <v>39.238246647881589</v>
       </c>
-      <c r="Q117" s="13">
-        <f t="shared" si="18"/>
+      <c r="Q117" s="11">
+        <f t="shared" si="17"/>
         <v>45.261904511409931</v>
       </c>
-      <c r="R117" s="13">
-        <f t="shared" si="18"/>
+      <c r="R117" s="11">
+        <f t="shared" si="17"/>
         <v>10.951141493013411</v>
       </c>
-      <c r="S117" s="13">
-        <f t="shared" si="18"/>
+      <c r="S117" s="11">
+        <f t="shared" si="17"/>
         <v>8.7372764635211126</v>
       </c>
-      <c r="T117" s="13">
-        <f t="shared" si="18"/>
+      <c r="T117" s="11">
+        <f t="shared" si="17"/>
         <v>43.054935837833973</v>
       </c>
-      <c r="U117" s="13">
-        <f t="shared" si="18"/>
+      <c r="U117" s="11">
+        <f t="shared" si="17"/>
         <v>57.162837578272821</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>28</v>
       </c>
-      <c r="B118" s="13">
+      <c r="B118" s="11">
         <f>TRIMMEAN(B96:B115,0.1)</f>
         <v>346</v>
       </c>
-      <c r="C118" s="13">
+      <c r="C118" s="11">
         <f>TRIMMEAN(C96:C115,0.1)</f>
         <v>354.72222222222223</v>
       </c>
-      <c r="D118" s="13">
+      <c r="D118" s="11">
         <f>TRIMMEAN(D96:D115,0.1)</f>
         <v>355.94444444444446</v>
       </c>
-      <c r="E118" s="13">
+      <c r="E118" s="11">
         <f>TRIMMEAN(E96:E115,0.1)</f>
         <v>353.05555555555554</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="11">
         <f>TRIMMEAN(F96:F115,0.1)</f>
         <v>355.94444444444446</v>
       </c>
-      <c r="G118" s="13">
-        <f t="shared" ref="G118:U118" si="19">TRIMMEAN(G96:G115,0.1)</f>
+      <c r="G118" s="11">
+        <f t="shared" ref="G118:U118" si="18">TRIMMEAN(G96:G115,0.1)</f>
         <v>357.83333333333331</v>
       </c>
-      <c r="H118" s="13">
-        <f t="shared" si="19"/>
+      <c r="H118" s="11">
+        <f t="shared" si="18"/>
         <v>353.55555555555554</v>
       </c>
-      <c r="I118" s="13">
-        <f t="shared" si="19"/>
+      <c r="I118" s="11">
+        <f t="shared" si="18"/>
         <v>361.16666666666669</v>
       </c>
-      <c r="J118" s="13">
-        <f t="shared" si="19"/>
+      <c r="J118" s="11">
+        <f t="shared" si="18"/>
         <v>361.44444444444446</v>
       </c>
-      <c r="K118" s="13">
-        <f t="shared" si="19"/>
+      <c r="K118" s="11">
+        <f t="shared" si="18"/>
         <v>355.38888888888891</v>
       </c>
-      <c r="L118" s="13">
-        <f t="shared" si="19"/>
+      <c r="L118" s="11">
+        <f t="shared" si="18"/>
         <v>355.16666666666669</v>
       </c>
-      <c r="M118" s="13">
-        <f t="shared" si="19"/>
+      <c r="M118" s="11">
+        <f t="shared" si="18"/>
         <v>350.5</v>
       </c>
-      <c r="N118" s="13">
-        <f t="shared" si="19"/>
+      <c r="N118" s="11">
+        <f t="shared" si="18"/>
         <v>357.94444444444446</v>
       </c>
-      <c r="O118" s="13">
-        <f t="shared" si="19"/>
+      <c r="O118" s="11">
+        <f t="shared" si="18"/>
         <v>389.77777777777777</v>
       </c>
-      <c r="P118" s="13">
-        <f t="shared" si="19"/>
+      <c r="P118" s="11">
+        <f t="shared" si="18"/>
         <v>362.38888888888891</v>
       </c>
-      <c r="Q118" s="13">
-        <f t="shared" si="19"/>
+      <c r="Q118" s="11">
+        <f t="shared" si="18"/>
         <v>429.5</v>
       </c>
-      <c r="R118" s="13">
-        <f t="shared" si="19"/>
+      <c r="R118" s="11">
+        <f t="shared" si="18"/>
         <v>376.33333333333331</v>
       </c>
-      <c r="S118" s="13">
-        <f t="shared" si="19"/>
+      <c r="S118" s="11">
+        <f t="shared" si="18"/>
         <v>400.16666666666669</v>
       </c>
-      <c r="T118" s="13">
-        <f t="shared" si="19"/>
+      <c r="T118" s="11">
+        <f t="shared" si="18"/>
         <v>544.27777777777783</v>
       </c>
-      <c r="U118" s="13">
-        <f t="shared" si="19"/>
+      <c r="U118" s="11">
+        <f t="shared" si="18"/>
         <v>1001</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>30</v>
       </c>
@@ -6477,165 +6475,165 @@
         <v>323</v>
       </c>
       <c r="C119">
-        <f t="shared" ref="C119:U119" si="20">MIN(C96:C115)</f>
+        <f t="shared" ref="C119:U119" si="19">MIN(C96:C115)</f>
         <v>336</v>
       </c>
       <c r="D119">
+        <f t="shared" si="19"/>
+        <v>341</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="19"/>
+        <v>336</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="19"/>
+        <v>333</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="19"/>
+        <v>334</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="19"/>
+        <v>327</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="19"/>
+        <v>333</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="19"/>
+        <v>340</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="19"/>
+        <v>344</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="19"/>
+        <v>330</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="19"/>
+        <v>340</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="19"/>
+        <v>342</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="19"/>
+        <v>335</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="19"/>
+        <v>353</v>
+      </c>
+      <c r="R119">
+        <f t="shared" si="19"/>
+        <v>356</v>
+      </c>
+      <c r="S119">
+        <f t="shared" si="19"/>
+        <v>384</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="19"/>
+        <v>514</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="19"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B120" s="11">
+        <f>B116-$B$122</f>
+        <v>186.45</v>
+      </c>
+      <c r="C120" s="11">
+        <f t="shared" ref="C120:U120" si="20">C116-$B$122</f>
+        <v>194.39999999999998</v>
+      </c>
+      <c r="D120" s="11">
         <f t="shared" si="20"/>
-        <v>341</v>
-      </c>
-      <c r="E119">
+        <v>196.3</v>
+      </c>
+      <c r="E120" s="11">
         <f t="shared" si="20"/>
-        <v>336</v>
-      </c>
-      <c r="F119">
+        <v>193.25</v>
+      </c>
+      <c r="F120" s="11">
         <f t="shared" si="20"/>
-        <v>333</v>
-      </c>
-      <c r="G119">
+        <v>196.05</v>
+      </c>
+      <c r="G120" s="11">
         <f t="shared" si="20"/>
-        <v>334</v>
-      </c>
-      <c r="H119">
+        <v>197.7</v>
+      </c>
+      <c r="H120" s="11">
         <f t="shared" si="20"/>
-        <v>327</v>
-      </c>
-      <c r="I119">
+        <v>193</v>
+      </c>
+      <c r="I120" s="11">
         <f t="shared" si="20"/>
-        <v>333</v>
-      </c>
-      <c r="J119">
+        <v>201</v>
+      </c>
+      <c r="J120" s="11">
         <f t="shared" si="20"/>
-        <v>338</v>
-      </c>
-      <c r="K119">
+        <v>205.75</v>
+      </c>
+      <c r="K120" s="11">
         <f t="shared" si="20"/>
-        <v>340</v>
-      </c>
-      <c r="L119">
+        <v>195.60000000000002</v>
+      </c>
+      <c r="L120" s="11">
         <f t="shared" si="20"/>
-        <v>344</v>
-      </c>
-      <c r="M119">
+        <v>195.25</v>
+      </c>
+      <c r="M120" s="11">
         <f t="shared" si="20"/>
-        <v>330</v>
-      </c>
-      <c r="N119">
+        <v>190.25</v>
+      </c>
+      <c r="N120" s="11">
         <f t="shared" si="20"/>
-        <v>340</v>
-      </c>
-      <c r="O119">
+        <v>197.8</v>
+      </c>
+      <c r="O120" s="11">
         <f t="shared" si="20"/>
-        <v>342</v>
-      </c>
-      <c r="P119">
+        <v>232.2</v>
+      </c>
+      <c r="P120" s="11">
         <f t="shared" si="20"/>
-        <v>335</v>
-      </c>
-      <c r="Q119">
+        <v>206.60000000000002</v>
+      </c>
+      <c r="Q120" s="11">
         <f t="shared" si="20"/>
-        <v>353</v>
-      </c>
-      <c r="R119">
+        <v>268.60000000000002</v>
+      </c>
+      <c r="R120" s="11">
         <f t="shared" si="20"/>
-        <v>356</v>
-      </c>
-      <c r="S119">
+        <v>216.14999999999998</v>
+      </c>
+      <c r="S120" s="11">
         <f t="shared" si="20"/>
-        <v>384</v>
-      </c>
-      <c r="T119">
+        <v>240.39999999999998</v>
+      </c>
+      <c r="T120" s="11">
         <f t="shared" si="20"/>
-        <v>514</v>
-      </c>
-      <c r="U119">
+        <v>389.65</v>
+      </c>
+      <c r="U120" s="11">
         <f t="shared" si="20"/>
-        <v>833</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B120">
-        <f>B119-$B$122</f>
-        <v>163</v>
-      </c>
-      <c r="C120">
-        <f t="shared" ref="C120:U120" si="21">C119-$B$122</f>
-        <v>176</v>
-      </c>
-      <c r="D120">
-        <f t="shared" si="21"/>
-        <v>181</v>
-      </c>
-      <c r="E120">
-        <f t="shared" si="21"/>
-        <v>176</v>
-      </c>
-      <c r="F120">
-        <f t="shared" si="21"/>
-        <v>173</v>
-      </c>
-      <c r="G120">
-        <f t="shared" si="21"/>
-        <v>174</v>
-      </c>
-      <c r="H120">
-        <f t="shared" si="21"/>
-        <v>167</v>
-      </c>
-      <c r="I120">
-        <f t="shared" si="21"/>
-        <v>173</v>
-      </c>
-      <c r="J120">
-        <f t="shared" si="21"/>
-        <v>178</v>
-      </c>
-      <c r="K120">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="L120">
-        <f t="shared" si="21"/>
-        <v>184</v>
-      </c>
-      <c r="M120">
-        <f t="shared" si="21"/>
-        <v>170</v>
-      </c>
-      <c r="N120">
-        <f t="shared" si="21"/>
-        <v>180</v>
-      </c>
-      <c r="O120">
-        <f t="shared" si="21"/>
-        <v>182</v>
-      </c>
-      <c r="P120">
-        <f t="shared" si="21"/>
-        <v>175</v>
-      </c>
-      <c r="Q120">
-        <f t="shared" si="21"/>
-        <v>193</v>
-      </c>
-      <c r="R120">
-        <f t="shared" si="21"/>
-        <v>196</v>
-      </c>
-      <c r="S120">
-        <f t="shared" si="21"/>
-        <v>224</v>
-      </c>
-      <c r="T120">
-        <f t="shared" si="21"/>
-        <v>354</v>
-      </c>
-      <c r="U120">
-        <f t="shared" si="21"/>
-        <v>673</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+        <v>837.9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>31</v>
       </c>
@@ -6643,30 +6641,30 @@
         <v>160</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A124" s="14"/>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="14"/>
-      <c r="K124" s="14"/>
-      <c r="L124" s="14"/>
-      <c r="M124" s="14"/>
-      <c r="N124" s="14"/>
-      <c r="O124" s="14"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="14"/>
-      <c r="R124" s="14"/>
-      <c r="S124" s="14"/>
-      <c r="T124" s="14"/>
-      <c r="U124" s="14"/>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>33</v>
       </c>
@@ -6674,12 +6672,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -6744,7 +6742,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1</v>
       </c>
@@ -6809,7 +6807,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -6874,7 +6872,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131">
         <f>A130+1</f>
         <v>3</v>
@@ -6940,9 +6938,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132">
-        <f t="shared" ref="A132:A147" si="22">A131+1</f>
+        <f t="shared" ref="A132:A147" si="21">A131+1</f>
         <v>4</v>
       </c>
       <c r="B132">
@@ -7006,9 +7004,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="B133">
@@ -7072,9 +7070,9 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="B134">
@@ -7138,9 +7136,9 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="B135">
@@ -7204,9 +7202,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
       <c r="B136">
@@ -7270,9 +7268,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="B137">
@@ -7336,9 +7334,9 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>10</v>
       </c>
       <c r="B138">
@@ -7402,9 +7400,9 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>11</v>
       </c>
       <c r="B139">
@@ -7468,9 +7466,9 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="B140">
@@ -7534,9 +7532,9 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>13</v>
       </c>
       <c r="B141">
@@ -7600,9 +7598,9 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="B142">
@@ -7666,9 +7664,9 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="B143">
@@ -7732,9 +7730,9 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>16</v>
       </c>
       <c r="B144">
@@ -7798,9 +7796,9 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>17</v>
       </c>
       <c r="B145">
@@ -7864,9 +7862,9 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>18</v>
       </c>
       <c r="B146">
@@ -7930,9 +7928,9 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>19</v>
       </c>
       <c r="B147">
@@ -7996,7 +7994,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148">
         <f>A147+1</f>
         <v>20</v>
@@ -8062,262 +8060,262 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>27</v>
       </c>
-      <c r="B149" s="13">
-        <f t="shared" ref="B149:U149" si="23">AVERAGE(B129:B148)</f>
+      <c r="B149" s="11">
+        <f t="shared" ref="B149:U149" si="22">AVERAGE(B129:B148)</f>
         <v>18.79</v>
       </c>
-      <c r="C149" s="13">
-        <f t="shared" si="23"/>
+      <c r="C149" s="11">
+        <f t="shared" si="22"/>
         <v>16.500000000000007</v>
       </c>
-      <c r="D149" s="13">
-        <f t="shared" si="23"/>
+      <c r="D149" s="11">
+        <f t="shared" si="22"/>
         <v>15.530000000000001</v>
       </c>
-      <c r="E149" s="13">
-        <f t="shared" si="23"/>
+      <c r="E149" s="11">
+        <f t="shared" si="22"/>
         <v>16.77</v>
       </c>
-      <c r="F149" s="13">
-        <f t="shared" si="23"/>
+      <c r="F149" s="11">
+        <f t="shared" si="22"/>
         <v>16.854999999999997</v>
       </c>
-      <c r="G149" s="13">
-        <f t="shared" si="23"/>
+      <c r="G149" s="11">
+        <f t="shared" si="22"/>
         <v>17.060000000000006</v>
       </c>
-      <c r="H149" s="13">
-        <f t="shared" si="23"/>
+      <c r="H149" s="11">
+        <f t="shared" si="22"/>
         <v>16.125</v>
       </c>
-      <c r="I149" s="13">
-        <f t="shared" si="23"/>
+      <c r="I149" s="11">
+        <f t="shared" si="22"/>
         <v>16.159999999999997</v>
       </c>
-      <c r="J149" s="13">
-        <f t="shared" si="23"/>
+      <c r="J149" s="11">
+        <f t="shared" si="22"/>
         <v>16.010000000000002</v>
       </c>
-      <c r="K149" s="13">
-        <f t="shared" si="23"/>
+      <c r="K149" s="11">
+        <f t="shared" si="22"/>
         <v>14.585000000000003</v>
       </c>
-      <c r="L149" s="13">
-        <f t="shared" si="23"/>
+      <c r="L149" s="11">
+        <f t="shared" si="22"/>
         <v>14.16</v>
       </c>
-      <c r="M149" s="13">
-        <f t="shared" si="23"/>
+      <c r="M149" s="11">
+        <f t="shared" si="22"/>
         <v>14.039999999999997</v>
       </c>
-      <c r="N149" s="13">
-        <f t="shared" si="23"/>
+      <c r="N149" s="11">
+        <f t="shared" si="22"/>
         <v>13.785000000000002</v>
       </c>
-      <c r="O149" s="13">
-        <f t="shared" si="23"/>
+      <c r="O149" s="11">
+        <f t="shared" si="22"/>
         <v>13.675000000000001</v>
       </c>
-      <c r="P149" s="13">
-        <f t="shared" si="23"/>
+      <c r="P149" s="11">
+        <f t="shared" si="22"/>
         <v>13.625</v>
       </c>
-      <c r="Q149" s="13">
-        <f t="shared" si="23"/>
+      <c r="Q149" s="11">
+        <f t="shared" si="22"/>
         <v>13.415000000000001</v>
       </c>
-      <c r="R149" s="13">
-        <f t="shared" si="23"/>
+      <c r="R149" s="11">
+        <f t="shared" si="22"/>
         <v>13.02</v>
       </c>
-      <c r="S149" s="13">
-        <f t="shared" si="23"/>
+      <c r="S149" s="11">
+        <f t="shared" si="22"/>
         <v>13.120000000000001</v>
       </c>
-      <c r="T149" s="13">
-        <f t="shared" si="23"/>
+      <c r="T149" s="11">
+        <f t="shared" si="22"/>
         <v>14.339999999999998</v>
       </c>
-      <c r="U149" s="13">
-        <f t="shared" si="23"/>
+      <c r="U149" s="11">
+        <f t="shared" si="22"/>
         <v>13.680000000000001</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>29</v>
       </c>
-      <c r="B150" s="13">
-        <f t="shared" ref="B150:U150" si="24">STDEV(B129:B149)</f>
+      <c r="B150" s="11">
+        <f t="shared" ref="B150:U150" si="23">STDEV(B129:B149)</f>
         <v>0.89044932477934957</v>
       </c>
-      <c r="C150" s="13">
-        <f t="shared" si="24"/>
+      <c r="C150" s="11">
+        <f t="shared" si="23"/>
         <v>0.96747092979582594</v>
       </c>
-      <c r="D150" s="13">
-        <f t="shared" si="24"/>
+      <c r="D150" s="11">
+        <f t="shared" si="23"/>
         <v>0.58574738582429886</v>
       </c>
-      <c r="E150" s="13">
-        <f t="shared" si="24"/>
+      <c r="E150" s="11">
+        <f t="shared" si="23"/>
         <v>1.0540872829135166</v>
       </c>
-      <c r="F150" s="13">
-        <f t="shared" si="24"/>
+      <c r="F150" s="11">
+        <f t="shared" si="23"/>
         <v>0.62567963048192632</v>
       </c>
-      <c r="G150" s="13">
-        <f t="shared" si="24"/>
+      <c r="G150" s="11">
+        <f t="shared" si="23"/>
         <v>1.2471567664090986</v>
       </c>
-      <c r="H150" s="13">
-        <f t="shared" si="24"/>
+      <c r="H150" s="11">
+        <f t="shared" si="23"/>
         <v>0.55034080350270254</v>
       </c>
-      <c r="I150" s="13">
-        <f t="shared" si="24"/>
+      <c r="I150" s="11">
+        <f t="shared" si="23"/>
         <v>0.47999999999999965</v>
       </c>
-      <c r="J150" s="13">
-        <f t="shared" si="24"/>
+      <c r="J150" s="11">
+        <f t="shared" si="23"/>
         <v>1.3273658124270036</v>
       </c>
-      <c r="K150" s="13">
-        <f t="shared" si="24"/>
+      <c r="K150" s="11">
+        <f t="shared" si="23"/>
         <v>0.97942585222159628</v>
       </c>
-      <c r="L150" s="13">
-        <f t="shared" si="24"/>
+      <c r="L150" s="11">
+        <f t="shared" si="23"/>
         <v>0.49436828377233083</v>
       </c>
-      <c r="M150" s="13">
-        <f t="shared" si="24"/>
+      <c r="M150" s="11">
+        <f t="shared" si="23"/>
         <v>0.75126559883971822</v>
       </c>
-      <c r="N150" s="13">
-        <f t="shared" si="24"/>
+      <c r="N150" s="11">
+        <f t="shared" si="23"/>
         <v>0.80017185654083067</v>
       </c>
-      <c r="O150" s="13">
-        <f t="shared" si="24"/>
+      <c r="O150" s="11">
+        <f t="shared" si="23"/>
         <v>0.56645829502267875</v>
       </c>
-      <c r="P150" s="13">
-        <f t="shared" si="24"/>
+      <c r="P150" s="11">
+        <f t="shared" si="23"/>
         <v>0.60981554588252374</v>
       </c>
-      <c r="Q150" s="13">
-        <f t="shared" si="24"/>
+      <c r="Q150" s="11">
+        <f t="shared" si="23"/>
         <v>0.91064537554417946</v>
       </c>
-      <c r="R150" s="13">
-        <f t="shared" si="24"/>
+      <c r="R150" s="11">
+        <f t="shared" si="23"/>
         <v>0.85064681272546949</v>
       </c>
-      <c r="S150" s="13">
-        <f t="shared" si="24"/>
+      <c r="S150" s="11">
+        <f t="shared" si="23"/>
         <v>0.71665891468675669</v>
       </c>
-      <c r="T150" s="13">
-        <f t="shared" si="24"/>
+      <c r="T150" s="11">
+        <f t="shared" si="23"/>
         <v>0.95624264703055373</v>
       </c>
-      <c r="U150" s="13">
-        <f t="shared" si="24"/>
+      <c r="U150" s="11">
+        <f t="shared" si="23"/>
         <v>0.5929586832149436</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>28</v>
       </c>
-      <c r="B151" s="13">
+      <c r="B151" s="11">
         <f>TRIMMEAN(B129:B148,0.1)</f>
         <v>18.783333333333331</v>
       </c>
-      <c r="C151" s="13">
+      <c r="C151" s="11">
         <f>TRIMMEAN(C129:C148,0.1)</f>
         <v>16.433333333333337</v>
       </c>
-      <c r="D151" s="13">
+      <c r="D151" s="11">
         <f>TRIMMEAN(D129:D148,0.1)</f>
         <v>15.511111111111111</v>
       </c>
-      <c r="E151" s="13">
+      <c r="E151" s="11">
         <f>TRIMMEAN(E129:E148,0.1)</f>
         <v>16.683333333333334</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="11">
         <f>TRIMMEAN(F129:F148,0.1)</f>
         <v>16.855555555555554</v>
       </c>
-      <c r="G151" s="13">
-        <f t="shared" ref="G151:U151" si="25">TRIMMEAN(G129:G148,0.1)</f>
+      <c r="G151" s="11">
+        <f t="shared" ref="G151:U151" si="24">TRIMMEAN(G129:G148,0.1)</f>
         <v>16.944444444444446</v>
       </c>
-      <c r="H151" s="13">
-        <f t="shared" si="25"/>
+      <c r="H151" s="11">
+        <f t="shared" si="24"/>
         <v>16.12222222222222</v>
       </c>
-      <c r="I151" s="13">
-        <f t="shared" si="25"/>
+      <c r="I151" s="11">
+        <f t="shared" si="24"/>
         <v>16.161111111111111</v>
       </c>
-      <c r="J151" s="13">
-        <f t="shared" si="25"/>
+      <c r="J151" s="11">
+        <f t="shared" si="24"/>
         <v>15.850000000000001</v>
       </c>
-      <c r="K151" s="13">
-        <f t="shared" si="25"/>
+      <c r="K151" s="11">
+        <f t="shared" si="24"/>
         <v>14.466666666666669</v>
       </c>
-      <c r="L151" s="13">
-        <f t="shared" si="25"/>
+      <c r="L151" s="11">
+        <f t="shared" si="24"/>
         <v>14.177777777777777</v>
       </c>
-      <c r="M151" s="13">
-        <f t="shared" si="25"/>
+      <c r="M151" s="11">
+        <f t="shared" si="24"/>
         <v>14.011111111111111</v>
       </c>
-      <c r="N151" s="13">
-        <f t="shared" si="25"/>
+      <c r="N151" s="11">
+        <f t="shared" si="24"/>
         <v>13.672222222222224</v>
       </c>
-      <c r="O151" s="13">
-        <f t="shared" si="25"/>
+      <c r="O151" s="11">
+        <f t="shared" si="24"/>
         <v>13.644444444444444</v>
       </c>
-      <c r="P151" s="13">
-        <f t="shared" si="25"/>
+      <c r="P151" s="11">
+        <f t="shared" si="24"/>
         <v>13.638888888888888</v>
       </c>
-      <c r="Q151" s="13">
-        <f t="shared" si="25"/>
+      <c r="Q151" s="11">
+        <f t="shared" si="24"/>
         <v>13.327777777777776</v>
       </c>
-      <c r="R151" s="13">
-        <f t="shared" si="25"/>
+      <c r="R151" s="11">
+        <f t="shared" si="24"/>
         <v>12.944444444444445</v>
       </c>
-      <c r="S151" s="13">
-        <f t="shared" si="25"/>
+      <c r="S151" s="11">
+        <f t="shared" si="24"/>
         <v>13.116666666666667</v>
       </c>
-      <c r="T151" s="13">
-        <f t="shared" si="25"/>
+      <c r="T151" s="11">
+        <f t="shared" si="24"/>
         <v>14.255555555555553</v>
       </c>
-      <c r="U151" s="13">
-        <f t="shared" si="25"/>
+      <c r="U151" s="11">
+        <f t="shared" si="24"/>
         <v>13.666666666666666</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
         <v>33</v>
       </c>
@@ -8325,12 +8323,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>25</v>
       </c>
@@ -8395,7 +8393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1</v>
       </c>
@@ -8460,7 +8458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -8525,7 +8523,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160">
         <f>A159+1</f>
         <v>3</v>
@@ -8591,9 +8589,9 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161">
-        <f t="shared" ref="A161:A176" si="26">A160+1</f>
+        <f t="shared" ref="A161:A176" si="25">A160+1</f>
         <v>4</v>
       </c>
       <c r="B161">
@@ -8657,9 +8655,9 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="B162">
@@ -8723,9 +8721,9 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="B163">
@@ -8789,9 +8787,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="B164">
@@ -8855,9 +8853,9 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="B165">
@@ -8921,9 +8919,9 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="B166">
@@ -8987,9 +8985,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="B167">
@@ -9053,9 +9051,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="B168">
@@ -9119,9 +9117,9 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="B169">
@@ -9185,9 +9183,9 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="B170">
@@ -9251,9 +9249,9 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
       <c r="B171">
@@ -9317,9 +9315,9 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
       <c r="B172">
@@ -9383,9 +9381,9 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>16</v>
       </c>
       <c r="B173">
@@ -9449,9 +9447,9 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
       <c r="B174">
@@ -9515,9 +9513,9 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>18</v>
       </c>
       <c r="B175">
@@ -9581,9 +9579,9 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>19</v>
       </c>
       <c r="B176">
@@ -9647,7 +9645,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177">
         <f>A176+1</f>
         <v>20</v>
@@ -9713,73 +9711,73 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B178" s="13"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="13"/>
-      <c r="E178" s="13"/>
-      <c r="F178" s="13"/>
-      <c r="G178" s="13"/>
-      <c r="H178" s="13"/>
-      <c r="I178" s="13"/>
-      <c r="J178" s="13"/>
-      <c r="K178" s="13"/>
-      <c r="L178" s="13"/>
-      <c r="M178" s="13"/>
-      <c r="N178" s="13"/>
-      <c r="O178" s="13"/>
-      <c r="P178" s="13"/>
-      <c r="Q178" s="13"/>
-      <c r="R178" s="13"/>
-      <c r="S178" s="13"/>
-      <c r="T178" s="13"/>
-      <c r="U178" s="13"/>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B179" s="13"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="13"/>
-      <c r="E179" s="13"/>
-      <c r="F179" s="13"/>
-      <c r="G179" s="13"/>
-      <c r="H179" s="13"/>
-      <c r="I179" s="13"/>
-      <c r="J179" s="13"/>
-      <c r="K179" s="13"/>
-      <c r="L179" s="13"/>
-      <c r="M179" s="13"/>
-      <c r="N179" s="13"/>
-      <c r="O179" s="13"/>
-      <c r="P179" s="13"/>
-      <c r="Q179" s="13"/>
-      <c r="R179" s="13"/>
-      <c r="S179" s="13"/>
-      <c r="T179" s="13"/>
-      <c r="U179" s="13"/>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B180" s="13"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="13"/>
-      <c r="E180" s="13"/>
-      <c r="F180" s="13"/>
-      <c r="G180" s="13"/>
-      <c r="H180" s="13"/>
-      <c r="I180" s="13"/>
-      <c r="J180" s="13"/>
-      <c r="K180" s="13"/>
-      <c r="L180" s="13"/>
-      <c r="M180" s="13"/>
-      <c r="N180" s="13"/>
-      <c r="O180" s="13"/>
-      <c r="P180" s="13"/>
-      <c r="Q180" s="13"/>
-      <c r="R180" s="13"/>
-      <c r="S180" s="13"/>
-      <c r="T180" s="13"/>
-      <c r="U180" s="13"/>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="11"/>
+      <c r="U178" s="11"/>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="11"/>
+      <c r="E179" s="11"/>
+      <c r="F179" s="11"/>
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="11"/>
+      <c r="U179" s="11"/>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="11"/>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>30</v>
       </c>
@@ -9788,83 +9786,83 @@
         <v>15.3</v>
       </c>
       <c r="C181">
-        <f t="shared" ref="C181:U181" si="27">MIN(C158:C177)</f>
+        <f t="shared" ref="C181:U181" si="26">MIN(C158:C177)</f>
         <v>14.3</v>
       </c>
       <c r="D181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>13.9</v>
       </c>
       <c r="E181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="F181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>15.1</v>
       </c>
       <c r="G181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>14.3</v>
       </c>
       <c r="H181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>14.2</v>
       </c>
       <c r="I181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>14.5</v>
       </c>
       <c r="J181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="K181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>12.1</v>
       </c>
       <c r="L181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.9</v>
       </c>
       <c r="M181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.4</v>
       </c>
       <c r="N181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.1</v>
       </c>
       <c r="O181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.2</v>
       </c>
       <c r="P181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="Q181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="R181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11</v>
       </c>
       <c r="S181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>10.4</v>
       </c>
       <c r="T181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.3</v>
       </c>
       <c r="U181">
-        <f t="shared" si="27"/>
+        <f t="shared" si="26"/>
         <v>11.5</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
         <v>33</v>
       </c>
@@ -9872,12 +9870,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>25</v>
       </c>
@@ -9942,7 +9940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -10007,7 +10005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2</v>
       </c>
@@ -10072,7 +10070,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189">
         <f>A188+1</f>
         <v>3</v>
@@ -10138,9 +10136,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190">
-        <f t="shared" ref="A190:A205" si="28">A189+1</f>
+        <f t="shared" ref="A190:A205" si="27">A189+1</f>
         <v>4</v>
       </c>
       <c r="B190">
@@ -10204,9 +10202,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="B191">
@@ -10270,9 +10268,9 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>6</v>
       </c>
       <c r="B192">
@@ -10336,9 +10334,9 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>7</v>
       </c>
       <c r="B193">
@@ -10402,9 +10400,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>8</v>
       </c>
       <c r="B194">
@@ -10468,9 +10466,9 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="B195">
@@ -10534,9 +10532,9 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>10</v>
       </c>
       <c r="B196">
@@ -10600,9 +10598,9 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>11</v>
       </c>
       <c r="B197">
@@ -10666,9 +10664,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>12</v>
       </c>
       <c r="B198">
@@ -10732,9 +10730,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>13</v>
       </c>
       <c r="B199">
@@ -10798,9 +10796,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="B200">
@@ -10864,9 +10862,9 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="B201">
@@ -10930,9 +10928,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>16</v>
       </c>
       <c r="B202">
@@ -10996,9 +10994,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>17</v>
       </c>
       <c r="B203">
@@ -11062,9 +11060,9 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>18</v>
       </c>
       <c r="B204">
@@ -11128,9 +11126,9 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205">
-        <f t="shared" si="28"/>
+        <f t="shared" si="27"/>
         <v>19</v>
       </c>
       <c r="B205">
@@ -11194,7 +11192,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206">
         <f>A205+1</f>
         <v>20</v>
@@ -11260,343 +11258,343 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>27</v>
       </c>
-      <c r="B207" s="13">
-        <f t="shared" ref="B207" si="29">AVERAGE(B187:B206)</f>
+      <c r="B207" s="11">
+        <f t="shared" ref="B207" si="28">AVERAGE(B187:B206)</f>
         <v>6.5200000000000005</v>
       </c>
-      <c r="C207" s="13">
-        <f t="shared" ref="C207" si="30">AVERAGE(C187:C206)</f>
+      <c r="C207" s="11">
+        <f t="shared" ref="C207" si="29">AVERAGE(C187:C206)</f>
         <v>5.3299999999999992</v>
       </c>
-      <c r="D207" s="13">
-        <f t="shared" ref="D207" si="31">AVERAGE(D187:D206)</f>
+      <c r="D207" s="11">
+        <f t="shared" ref="D207" si="30">AVERAGE(D187:D206)</f>
         <v>5.83</v>
       </c>
-      <c r="E207" s="13">
-        <f t="shared" ref="E207" si="32">AVERAGE(E187:E206)</f>
+      <c r="E207" s="11">
+        <f t="shared" ref="E207" si="31">AVERAGE(E187:E206)</f>
         <v>6.05</v>
       </c>
-      <c r="F207" s="13">
-        <f t="shared" ref="F207" si="33">AVERAGE(F187:F206)</f>
+      <c r="F207" s="11">
+        <f t="shared" ref="F207" si="32">AVERAGE(F187:F206)</f>
         <v>5.5549999999999988</v>
       </c>
-      <c r="G207" s="13">
-        <f t="shared" ref="G207" si="34">AVERAGE(G187:G206)</f>
+      <c r="G207" s="11">
+        <f t="shared" ref="G207" si="33">AVERAGE(G187:G206)</f>
         <v>5.7850000000000019</v>
       </c>
-      <c r="H207" s="13">
-        <f t="shared" ref="H207" si="35">AVERAGE(H187:H206)</f>
+      <c r="H207" s="11">
+        <f t="shared" ref="H207" si="34">AVERAGE(H187:H206)</f>
         <v>5.51</v>
       </c>
-      <c r="I207" s="13">
-        <f t="shared" ref="I207" si="36">AVERAGE(I187:I206)</f>
+      <c r="I207" s="11">
+        <f t="shared" ref="I207" si="35">AVERAGE(I187:I206)</f>
         <v>5.4799999999999995</v>
       </c>
-      <c r="J207" s="13">
-        <f t="shared" ref="J207" si="37">AVERAGE(J187:J206)</f>
+      <c r="J207" s="11">
+        <f t="shared" ref="J207" si="36">AVERAGE(J187:J206)</f>
         <v>5.0999999999999996</v>
       </c>
-      <c r="K207" s="13">
-        <f t="shared" ref="K207" si="38">AVERAGE(K187:K206)</f>
+      <c r="K207" s="11">
+        <f t="shared" ref="K207" si="37">AVERAGE(K187:K206)</f>
         <v>3.6</v>
       </c>
-      <c r="L207" s="13">
-        <f t="shared" ref="L207" si="39">AVERAGE(L187:L206)</f>
+      <c r="L207" s="11">
+        <f t="shared" ref="L207" si="38">AVERAGE(L187:L206)</f>
         <v>3.8350000000000009</v>
       </c>
-      <c r="M207" s="13">
-        <f t="shared" ref="M207" si="40">AVERAGE(M187:M206)</f>
+      <c r="M207" s="11">
+        <f t="shared" ref="M207" si="39">AVERAGE(M187:M206)</f>
         <v>3.5200000000000005</v>
       </c>
-      <c r="N207" s="13">
-        <f t="shared" ref="N207" si="41">AVERAGE(N187:N206)</f>
+      <c r="N207" s="11">
+        <f t="shared" ref="N207" si="40">AVERAGE(N187:N206)</f>
         <v>3.5649999999999999</v>
       </c>
-      <c r="O207" s="13">
-        <f t="shared" ref="O207" si="42">AVERAGE(O187:O206)</f>
+      <c r="O207" s="11">
+        <f t="shared" ref="O207" si="41">AVERAGE(O187:O206)</f>
         <v>3.1100000000000003</v>
       </c>
-      <c r="P207" s="13">
-        <f t="shared" ref="P207" si="43">AVERAGE(P187:P206)</f>
+      <c r="P207" s="11">
+        <f t="shared" ref="P207" si="42">AVERAGE(P187:P206)</f>
         <v>3.3199999999999994</v>
       </c>
-      <c r="Q207" s="13">
-        <f t="shared" ref="Q207" si="44">AVERAGE(Q187:Q206)</f>
+      <c r="Q207" s="11">
+        <f t="shared" ref="Q207" si="43">AVERAGE(Q187:Q206)</f>
         <v>3.4549999999999996</v>
       </c>
-      <c r="R207" s="13">
-        <f t="shared" ref="R207" si="45">AVERAGE(R187:R206)</f>
+      <c r="R207" s="11">
+        <f t="shared" ref="R207" si="44">AVERAGE(R187:R206)</f>
         <v>3.535000000000001</v>
       </c>
-      <c r="S207" s="13">
-        <f t="shared" ref="S207" si="46">AVERAGE(S187:S206)</f>
+      <c r="S207" s="11">
+        <f t="shared" ref="S207" si="45">AVERAGE(S187:S206)</f>
         <v>3.2749999999999999</v>
       </c>
-      <c r="T207" s="13">
-        <f t="shared" ref="T207" si="47">AVERAGE(T187:T206)</f>
+      <c r="T207" s="11">
+        <f t="shared" ref="T207" si="46">AVERAGE(T187:T206)</f>
         <v>4.2050000000000001</v>
       </c>
-      <c r="U207" s="13">
-        <f t="shared" ref="U207" si="48">AVERAGE(U187:U206)</f>
+      <c r="U207" s="11">
+        <f t="shared" ref="U207" si="47">AVERAGE(U187:U206)</f>
         <v>3.5000000000000009</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>29</v>
       </c>
-      <c r="B208" s="13">
-        <f t="shared" ref="B208" si="49">STDEV(B187:B207)</f>
+      <c r="B208" s="11">
+        <f t="shared" ref="B208" si="48">STDEV(B187:B207)</f>
         <v>0.65696270822627378</v>
       </c>
-      <c r="C208" s="13">
-        <f t="shared" ref="C208" si="50">STDEV(C187:C207)</f>
+      <c r="C208" s="11">
+        <f t="shared" ref="C208" si="49">STDEV(C187:C207)</f>
         <v>1.1515641536623169</v>
       </c>
-      <c r="D208" s="13">
-        <f t="shared" ref="D208" si="51">STDEV(D187:D207)</f>
+      <c r="D208" s="11">
+        <f t="shared" ref="D208" si="50">STDEV(D187:D207)</f>
         <v>1.0178899744078456</v>
       </c>
-      <c r="E208" s="13">
-        <f t="shared" ref="E208" si="52">STDEV(E187:E207)</f>
+      <c r="E208" s="11">
+        <f t="shared" ref="E208" si="51">STDEV(E187:E207)</f>
         <v>0.73246160308920405</v>
       </c>
-      <c r="F208" s="13">
-        <f t="shared" ref="F208" si="53">STDEV(F187:F207)</f>
+      <c r="F208" s="11">
+        <f t="shared" ref="F208" si="52">STDEV(F187:F207)</f>
         <v>1.1227087779117138</v>
       </c>
-      <c r="G208" s="13">
-        <f t="shared" ref="G208" si="54">STDEV(G187:G207)</f>
+      <c r="G208" s="11">
+        <f t="shared" ref="G208" si="53">STDEV(G187:G207)</f>
         <v>0.8984848357095333</v>
       </c>
-      <c r="H208" s="13">
-        <f t="shared" ref="H208" si="55">STDEV(H187:H207)</f>
+      <c r="H208" s="11">
+        <f t="shared" ref="H208" si="54">STDEV(H187:H207)</f>
         <v>1.0976793703081076</v>
       </c>
-      <c r="I208" s="13">
-        <f t="shared" ref="I208" si="56">STDEV(I187:I207)</f>
+      <c r="I208" s="11">
+        <f t="shared" ref="I208" si="55">STDEV(I187:I207)</f>
         <v>1.0161692772368176</v>
       </c>
-      <c r="J208" s="13">
-        <f t="shared" ref="J208" si="57">STDEV(J187:J207)</f>
+      <c r="J208" s="11">
+        <f t="shared" ref="J208" si="56">STDEV(J187:J207)</f>
         <v>1.0019980039900318</v>
       </c>
-      <c r="K208" s="13">
-        <f t="shared" ref="K208" si="58">STDEV(K187:K207)</f>
+      <c r="K208" s="11">
+        <f t="shared" ref="K208" si="57">STDEV(K187:K207)</f>
         <v>1.0473776778220942</v>
       </c>
-      <c r="L208" s="13">
-        <f t="shared" ref="L208" si="59">STDEV(L187:L207)</f>
+      <c r="L208" s="11">
+        <f t="shared" ref="L208" si="58">STDEV(L187:L207)</f>
         <v>0.7721884485020406</v>
       </c>
-      <c r="M208" s="13">
-        <f t="shared" ref="M208" si="60">STDEV(M187:M207)</f>
+      <c r="M208" s="11">
+        <f t="shared" ref="M208" si="59">STDEV(M187:M207)</f>
         <v>0.68600291544569902</v>
       </c>
-      <c r="N208" s="13">
-        <f t="shared" ref="N208" si="61">STDEV(N187:N207)</f>
+      <c r="N208" s="11">
+        <f t="shared" ref="N208" si="60">STDEV(N187:N207)</f>
         <v>0.41264391428931035</v>
       </c>
-      <c r="O208" s="13">
-        <f t="shared" ref="O208" si="62">STDEV(O187:O207)</f>
+      <c r="O208" s="11">
+        <f t="shared" ref="O208" si="61">STDEV(O187:O207)</f>
         <v>0.71895757872074739</v>
       </c>
-      <c r="P208" s="13">
-        <f t="shared" ref="P208" si="63">STDEV(P187:P207)</f>
+      <c r="P208" s="11">
+        <f t="shared" ref="P208" si="62">STDEV(P187:P207)</f>
         <v>0.64156059729382198</v>
       </c>
-      <c r="Q208" s="13">
-        <f t="shared" ref="Q208" si="64">STDEV(Q187:Q207)</f>
+      <c r="Q208" s="11">
+        <f t="shared" ref="Q208" si="63">STDEV(Q187:Q207)</f>
         <v>0.80279200294970987</v>
       </c>
-      <c r="R208" s="13">
-        <f t="shared" ref="R208" si="65">STDEV(R187:R207)</f>
+      <c r="R208" s="11">
+        <f t="shared" ref="R208" si="64">STDEV(R187:R207)</f>
         <v>0.48915743886809882</v>
       </c>
-      <c r="S208" s="13">
-        <f t="shared" ref="S208" si="66">STDEV(S187:S207)</f>
+      <c r="S208" s="11">
+        <f t="shared" ref="S208" si="65">STDEV(S187:S207)</f>
         <v>0.58640856064692515</v>
       </c>
-      <c r="T208" s="13">
-        <f t="shared" ref="T208" si="67">STDEV(T187:T207)</f>
+      <c r="T208" s="11">
+        <f t="shared" ref="T208" si="66">STDEV(T187:T207)</f>
         <v>0.33387872049593104</v>
       </c>
-      <c r="U208" s="13">
-        <f t="shared" ref="U208" si="68">STDEV(U187:U207)</f>
+      <c r="U208" s="11">
+        <f t="shared" ref="U208" si="67">STDEV(U187:U207)</f>
         <v>0.65268675488322592</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>28</v>
       </c>
-      <c r="B209" s="13">
+      <c r="B209" s="11">
         <f>TRIMMEAN(B187:B206,0.1)</f>
         <v>6.5444444444444443</v>
       </c>
-      <c r="C209" s="13">
+      <c r="C209" s="11">
         <f>TRIMMEAN(C187:C206,0.1)</f>
         <v>5.3888888888888884</v>
       </c>
-      <c r="D209" s="13">
+      <c r="D209" s="11">
         <f>TRIMMEAN(D187:D206,0.1)</f>
         <v>5.9833333333333334</v>
       </c>
-      <c r="E209" s="13">
+      <c r="E209" s="11">
         <f>TRIMMEAN(E187:E206,0.1)</f>
         <v>6.1222222222222227</v>
       </c>
-      <c r="F209" s="13">
+      <c r="F209" s="11">
         <f>TRIMMEAN(F187:F206,0.1)</f>
         <v>5.6777777777777771</v>
       </c>
-      <c r="G209" s="13">
-        <f t="shared" ref="G209:U209" si="69">TRIMMEAN(G187:G206,0.1)</f>
+      <c r="G209" s="11">
+        <f t="shared" ref="G209:U209" si="68">TRIMMEAN(G187:G206,0.1)</f>
         <v>5.7944444444444461</v>
       </c>
-      <c r="H209" s="13">
-        <f t="shared" si="69"/>
+      <c r="H209" s="11">
+        <f t="shared" si="68"/>
         <v>5.6499999999999995</v>
       </c>
-      <c r="I209" s="13">
-        <f t="shared" si="69"/>
+      <c r="I209" s="11">
+        <f t="shared" si="68"/>
         <v>5.6166666666666663</v>
       </c>
-      <c r="J209" s="13">
-        <f t="shared" si="69"/>
+      <c r="J209" s="11">
+        <f t="shared" si="68"/>
         <v>5.1166666666666654</v>
       </c>
-      <c r="K209" s="13">
-        <f t="shared" si="69"/>
+      <c r="K209" s="11">
+        <f t="shared" si="68"/>
         <v>3.6388888888888888</v>
       </c>
-      <c r="L209" s="13">
-        <f t="shared" si="69"/>
+      <c r="L209" s="11">
+        <f t="shared" si="68"/>
         <v>3.9166666666666665</v>
       </c>
-      <c r="M209" s="13">
-        <f t="shared" si="69"/>
+      <c r="M209" s="11">
+        <f t="shared" si="68"/>
         <v>3.5166666666666666</v>
       </c>
-      <c r="N209" s="13">
-        <f t="shared" si="69"/>
+      <c r="N209" s="11">
+        <f t="shared" si="68"/>
         <v>3.5888888888888886</v>
       </c>
-      <c r="O209" s="13">
-        <f t="shared" si="69"/>
+      <c r="O209" s="11">
+        <f t="shared" si="68"/>
         <v>3.1444444444444444</v>
       </c>
-      <c r="P209" s="13">
-        <f t="shared" si="69"/>
+      <c r="P209" s="11">
+        <f t="shared" si="68"/>
         <v>3.3888888888888884</v>
       </c>
-      <c r="Q209" s="13">
-        <f t="shared" si="69"/>
+      <c r="Q209" s="11">
+        <f t="shared" si="68"/>
         <v>3.3888888888888893</v>
       </c>
-      <c r="R209" s="13">
-        <f t="shared" si="69"/>
+      <c r="R209" s="11">
+        <f t="shared" si="68"/>
         <v>3.5333333333333341</v>
       </c>
-      <c r="S209" s="13">
-        <f t="shared" si="69"/>
+      <c r="S209" s="11">
+        <f t="shared" si="68"/>
         <v>3.2722222222222226</v>
       </c>
-      <c r="T209" s="13">
-        <f t="shared" si="69"/>
+      <c r="T209" s="11">
+        <f t="shared" si="68"/>
         <v>4.2444444444444436</v>
       </c>
-      <c r="U209" s="13">
-        <f t="shared" si="69"/>
+      <c r="U209" s="11">
+        <f t="shared" si="68"/>
         <v>3.505555555555556</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>30</v>
       </c>
-      <c r="B210" s="13">
+      <c r="B210" s="11">
         <f>MIN(B187:B206)</f>
         <v>5.2</v>
       </c>
-      <c r="C210" s="13">
-        <f t="shared" ref="C210:U210" si="70">MIN(C187:C206)</f>
+      <c r="C210" s="11">
+        <f t="shared" ref="C210:U210" si="69">MIN(C187:C206)</f>
         <v>2.6</v>
       </c>
-      <c r="D210" s="13">
-        <f t="shared" si="70"/>
+      <c r="D210" s="11">
+        <f t="shared" si="69"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="E210" s="13">
-        <f t="shared" si="70"/>
+      <c r="E210" s="11">
+        <f t="shared" si="69"/>
         <v>3.9</v>
       </c>
-      <c r="F210" s="13">
-        <f t="shared" si="70"/>
+      <c r="F210" s="11">
+        <f t="shared" si="69"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="G210" s="13">
-        <f t="shared" si="70"/>
+      <c r="G210" s="11">
+        <f t="shared" si="69"/>
         <v>4.2</v>
       </c>
-      <c r="H210" s="13">
-        <f t="shared" si="70"/>
+      <c r="H210" s="11">
+        <f t="shared" si="69"/>
         <v>2</v>
       </c>
-      <c r="I210" s="13">
-        <f t="shared" si="70"/>
+      <c r="I210" s="11">
+        <f t="shared" si="69"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="J210" s="13">
-        <f t="shared" si="70"/>
+      <c r="J210" s="11">
+        <f t="shared" si="69"/>
         <v>3.4</v>
       </c>
-      <c r="K210" s="13">
-        <f t="shared" si="70"/>
+      <c r="K210" s="11">
+        <f t="shared" si="69"/>
         <v>1.6</v>
       </c>
-      <c r="L210" s="13">
-        <f t="shared" si="70"/>
+      <c r="L210" s="11">
+        <f t="shared" si="69"/>
         <v>1.6</v>
       </c>
-      <c r="M210" s="13">
-        <f t="shared" si="70"/>
+      <c r="M210" s="11">
+        <f t="shared" si="69"/>
         <v>2.5</v>
       </c>
-      <c r="N210" s="13">
-        <f t="shared" si="70"/>
+      <c r="N210" s="11">
+        <f t="shared" si="69"/>
         <v>2.5</v>
       </c>
-      <c r="O210" s="13">
-        <f t="shared" si="70"/>
+      <c r="O210" s="11">
+        <f t="shared" si="69"/>
         <v>1.4</v>
       </c>
-      <c r="P210" s="13">
-        <f t="shared" si="70"/>
+      <c r="P210" s="11">
+        <f t="shared" si="69"/>
         <v>1.4</v>
       </c>
-      <c r="Q210" s="13">
-        <f t="shared" si="70"/>
+      <c r="Q210" s="11">
+        <f t="shared" si="69"/>
         <v>2.1</v>
       </c>
-      <c r="R210" s="13">
-        <f t="shared" si="70"/>
+      <c r="R210" s="11">
+        <f t="shared" si="69"/>
         <v>2.5</v>
       </c>
-      <c r="S210" s="13">
-        <f t="shared" si="70"/>
+      <c r="S210" s="11">
+        <f t="shared" si="69"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="T210" s="13">
-        <f t="shared" si="70"/>
+      <c r="T210" s="11">
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
-      <c r="U210" s="13">
-        <f t="shared" si="70"/>
+      <c r="U210" s="11">
+        <f t="shared" si="69"/>
         <v>2.4</v>
       </c>
     </row>
